--- a/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32088202819503</v>
+        <v>20.34434428454029</v>
       </c>
       <c r="C2">
-        <v>19.60565159521822</v>
+        <v>9.740333397356006</v>
       </c>
       <c r="D2">
-        <v>3.119235011270592</v>
+        <v>2.020090641159573</v>
       </c>
       <c r="E2">
-        <v>7.60527922170169</v>
+        <v>6.473157248042774</v>
       </c>
       <c r="F2">
-        <v>40.3629806946067</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>42.22421523177955</v>
       </c>
       <c r="I2">
-        <v>25.00680244219144</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.319099275543365</v>
+        <v>6.254948184858907</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.71656258959895</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.791839378518202</v>
       </c>
       <c r="M2">
-        <v>17.12604682924201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>32.08900306788372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8035131812766</v>
+        <v>19.17633427652303</v>
       </c>
       <c r="C3">
-        <v>18.17702632079921</v>
+        <v>9.130513959295714</v>
       </c>
       <c r="D3">
-        <v>3.161652151851372</v>
+        <v>2.000153000291156</v>
       </c>
       <c r="E3">
-        <v>7.328249128619822</v>
+        <v>6.491699197421677</v>
       </c>
       <c r="F3">
-        <v>38.24045701984632</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>41.11530630996089</v>
       </c>
       <c r="I3">
-        <v>24.07884053474708</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.174197246404536</v>
+        <v>6.295170912670105</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.8106367392353</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.677101208427855</v>
       </c>
       <c r="M3">
-        <v>15.92997431347675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>31.32926479180493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82512481886738</v>
+        <v>18.43789575494213</v>
       </c>
       <c r="C4">
-        <v>17.25824740001017</v>
+        <v>8.737997981092818</v>
       </c>
       <c r="D4">
-        <v>3.189121347642268</v>
+        <v>1.988594967903904</v>
       </c>
       <c r="E4">
-        <v>7.160592326216957</v>
+        <v>6.505002754241204</v>
       </c>
       <c r="F4">
-        <v>36.92660398677135</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>40.45357303986746</v>
       </c>
       <c r="I4">
-        <v>23.51974499784775</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.090433664173935</v>
+        <v>6.321271987538074</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.23782364181563</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.609671465739002</v>
       </c>
       <c r="M4">
-        <v>15.16027537768032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.87909548635818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4144498585782</v>
+        <v>18.1319013685565</v>
       </c>
       <c r="C5">
-        <v>16.87314243616339</v>
+        <v>8.573469396800437</v>
       </c>
       <c r="D5">
-        <v>3.200644435704931</v>
+        <v>1.984043587006489</v>
       </c>
       <c r="E5">
-        <v>7.092918481254581</v>
+        <v>6.510898444383775</v>
       </c>
       <c r="F5">
-        <v>36.3888868192302</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>40.18880040957825</v>
       </c>
       <c r="I5">
-        <v>23.29464118173093</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.057562038925687</v>
+        <v>6.332259520768934</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.00044314121629</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.582960856734041</v>
       </c>
       <c r="M5">
-        <v>14.83756236998982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.69975167724124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3455280895002</v>
+        <v>18.08079423731466</v>
       </c>
       <c r="C6">
-        <v>16.80854359084599</v>
+        <v>8.54587266845596</v>
       </c>
       <c r="D6">
-        <v>3.202576950495208</v>
+        <v>1.983297048116201</v>
       </c>
       <c r="E6">
-        <v>7.081721564039767</v>
+        <v>6.51190584335232</v>
       </c>
       <c r="F6">
-        <v>36.29947267855385</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>40.14513267863216</v>
       </c>
       <c r="I6">
-        <v>23.25742974802708</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.052178659401783</v>
+        <v>6.334105147515934</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.96079479454504</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.578572168231446</v>
       </c>
       <c r="M6">
-        <v>14.7834244129381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.67021966712906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81963508213509</v>
+        <v>18.43378913673232</v>
       </c>
       <c r="C7">
-        <v>17.25309734072837</v>
+        <v>8.735797642853219</v>
       </c>
       <c r="D7">
-        <v>3.189275454444894</v>
+        <v>1.988532960855415</v>
       </c>
       <c r="E7">
-        <v>7.159676979517269</v>
+        <v>6.505080355152555</v>
       </c>
       <c r="F7">
-        <v>36.919360935117</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>40.44998232500225</v>
       </c>
       <c r="I7">
-        <v>23.51669802519454</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.08998529373635</v>
+        <v>6.321418749914838</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.23463793382765</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.609308118827858</v>
       </c>
       <c r="M7">
-        <v>15.15596003977894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.87666017480411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.8072481282071</v>
+        <v>19.9461727590204</v>
       </c>
       <c r="C8">
-        <v>19.12154706671815</v>
+        <v>9.533800381719281</v>
       </c>
       <c r="D8">
-        <v>3.133545668468652</v>
+        <v>2.013065786059092</v>
       </c>
       <c r="E8">
-        <v>7.509269938286335</v>
+        <v>6.479147249701402</v>
       </c>
       <c r="F8">
-        <v>39.63351045227266</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>41.83793381717091</v>
       </c>
       <c r="I8">
-        <v>24.68464427246854</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.268027690244596</v>
+        <v>6.268524296335036</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.40774844348138</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.751655800372721</v>
       </c>
       <c r="M8">
-        <v>16.72085691268738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.82365996810526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.34542992837464</v>
+        <v>22.73471084782017</v>
       </c>
       <c r="C9">
-        <v>22.46730688819126</v>
+        <v>10.95711689752456</v>
       </c>
       <c r="D9">
-        <v>3.037163108482413</v>
+        <v>2.067277954484407</v>
       </c>
       <c r="E9">
-        <v>8.213320624244554</v>
+        <v>6.443909899099403</v>
       </c>
       <c r="F9">
-        <v>44.86344613163845</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>44.70899415929753</v>
       </c>
       <c r="I9">
-        <v>27.05961152920834</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.660745203078354</v>
+        <v>6.176041007466289</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.80362357332296</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.054427819305651</v>
       </c>
       <c r="M9">
-        <v>19.51843451127574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.81044791720171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.74306557395622</v>
+        <v>24.66882056034206</v>
       </c>
       <c r="C10">
-        <v>24.74995591264504</v>
+        <v>11.9201195628081</v>
       </c>
       <c r="D10">
-        <v>2.976987162517541</v>
+        <v>2.111906590257205</v>
       </c>
       <c r="E10">
-        <v>8.741895915207461</v>
+        <v>6.428136306934884</v>
       </c>
       <c r="F10">
-        <v>48.64993396185042</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>46.90790072165563</v>
       </c>
       <c r="I10">
-        <v>28.85999316248012</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.979418308871272</v>
+        <v>6.11511184160859</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.53549100633429</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.290947445518073</v>
       </c>
       <c r="M10">
-        <v>21.42266819214668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.35078692434214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.79443043518822</v>
+        <v>25.56505982076282</v>
       </c>
       <c r="C11">
-        <v>25.75513213657636</v>
+        <v>12.34129265877814</v>
       </c>
       <c r="D11">
-        <v>2.952737327574612</v>
+        <v>2.133534872246485</v>
       </c>
       <c r="E11">
-        <v>8.985229879120512</v>
+        <v>6.423303803856922</v>
       </c>
       <c r="F11">
-        <v>50.36392671581326</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>47.92813137170425</v>
       </c>
       <c r="I11">
-        <v>29.69332568415465</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.131906718114536</v>
+        <v>6.08896278958345</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.29073528203503</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.40158134143514</v>
       </c>
       <c r="M11">
-        <v>22.25984816965764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.06984135925641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18732992217678</v>
+        <v>25.91390598400919</v>
       </c>
       <c r="C12">
-        <v>26.13146438379639</v>
+        <v>12.49845259087621</v>
       </c>
       <c r="D12">
-        <v>2.944091429333621</v>
+        <v>2.141943380084462</v>
       </c>
       <c r="E12">
-        <v>9.077855389901176</v>
+        <v>6.421824461046803</v>
       </c>
       <c r="F12">
-        <v>51.01228921234011</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>48.31743349780488</v>
       </c>
       <c r="I12">
-        <v>30.01124850720279</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.190831512564763</v>
+        <v>6.079290946980756</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.57222829146162</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.443915361666503</v>
       </c>
       <c r="M12">
-        <v>22.57305009627097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.34487410371005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.10293711296638</v>
+        <v>25.83899918914751</v>
       </c>
       <c r="C13">
-        <v>26.05059775935998</v>
+        <v>12.46470720130774</v>
       </c>
       <c r="D13">
-        <v>2.945927997271249</v>
+        <v>2.140122264485458</v>
       </c>
       <c r="E13">
-        <v>9.057884104367856</v>
+        <v>6.422127236542044</v>
       </c>
       <c r="F13">
-        <v>50.87267266698979</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>48.23345633657436</v>
       </c>
       <c r="I13">
-        <v>29.94266737404602</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.178086693711053</v>
+        <v>6.081363627598621</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.51180078010248</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.434778343374584</v>
       </c>
       <c r="M13">
-        <v>22.50576003231457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.28551679065538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82685665654475</v>
+        <v>25.59386059347287</v>
       </c>
       <c r="C14">
-        <v>25.78617657080583</v>
+        <v>12.354268346496</v>
       </c>
       <c r="D14">
-        <v>2.952014693207988</v>
+        <v>2.134222097091263</v>
       </c>
       <c r="E14">
-        <v>8.992840128787167</v>
+        <v>6.42317498690572</v>
       </c>
       <c r="F14">
-        <v>50.41727790340326</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>47.96009933615063</v>
       </c>
       <c r="I14">
-        <v>29.71943204246852</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.136730192944336</v>
+        <v>6.088162437030566</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.31398296784149</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.405055350863705</v>
       </c>
       <c r="M14">
-        <v>22.2856897826097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.09241275678333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.6570820695988</v>
+        <v>25.44304840844987</v>
       </c>
       <c r="C15">
-        <v>25.6236653323446</v>
+        <v>12.28632129759636</v>
       </c>
       <c r="D15">
-        <v>2.955815821812972</v>
+        <v>2.130637395502447</v>
       </c>
       <c r="E15">
-        <v>8.953063810154362</v>
+        <v>6.423862856306921</v>
       </c>
       <c r="F15">
-        <v>50.13826507361264</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>47.79305005836923</v>
       </c>
       <c r="I15">
-        <v>29.58301167880914</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.111555191991696</v>
+        <v>6.092357041810136</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.19223344092564</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.386906527757928</v>
       </c>
       <c r="M15">
-        <v>22.15040453229099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.97449192428383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.67360002451157</v>
+        <v>24.61245650026313</v>
       </c>
       <c r="C16">
-        <v>24.68363553204678</v>
+        <v>11.89226311822927</v>
       </c>
       <c r="D16">
-        <v>2.978641903632334</v>
+        <v>2.110522095475451</v>
       </c>
       <c r="E16">
-        <v>8.72605642994643</v>
+        <v>6.428500409070914</v>
       </c>
       <c r="F16">
-        <v>48.53779033194062</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>46.84163424628803</v>
       </c>
       <c r="I16">
-        <v>28.80584429868584</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.969612226208072</v>
+        <v>6.11685268563912</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.48549355605531</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.283778513423107</v>
       </c>
       <c r="M16">
-        <v>21.36740117459063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.30417217390244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.0604766495362</v>
+        <v>24.11569982077781</v>
       </c>
       <c r="C17">
-        <v>24.09876397505401</v>
+        <v>11.64625960440858</v>
       </c>
       <c r="D17">
-        <v>2.993502048026625</v>
+        <v>2.098540206075302</v>
       </c>
       <c r="E17">
-        <v>8.58757080672259</v>
+        <v>6.431954812604826</v>
       </c>
       <c r="F17">
-        <v>47.55408890581518</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>46.26312717755995</v>
       </c>
       <c r="I17">
-        <v>28.33292656219267</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.884525996297607</v>
+        <v>6.132284723277531</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.04370956626904</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.221291536707879</v>
       </c>
       <c r="M17">
-        <v>20.87984914626084</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.89771311911915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.70409346492025</v>
+        <v>23.82761611424997</v>
       </c>
       <c r="C18">
-        <v>23.75920335002039</v>
+        <v>11.50316708275237</v>
       </c>
       <c r="D18">
-        <v>3.002337074493781</v>
+        <v>2.091771530641892</v>
       </c>
       <c r="E18">
-        <v>8.508183280048332</v>
+        <v>6.434161329349708</v>
       </c>
       <c r="F18">
-        <v>46.98744596515116</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>45.93225262335004</v>
       </c>
       <c r="I18">
-        <v>28.06224195598771</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.836287748343946</v>
+        <v>6.141308078198857</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.78652728578258</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.18563642388204</v>
       </c>
       <c r="M18">
-        <v>20.59666193427225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.66564699014597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.58277544305516</v>
+        <v>23.72966948542194</v>
       </c>
       <c r="C19">
-        <v>23.64367837674333</v>
+        <v>11.45444114749477</v>
       </c>
       <c r="D19">
-        <v>3.005375521746931</v>
+        <v>2.089500117941502</v>
       </c>
       <c r="E19">
-        <v>8.481348132043657</v>
+        <v>6.434945745304478</v>
       </c>
       <c r="F19">
-        <v>46.79543255220417</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>45.82054297486094</v>
       </c>
       <c r="I19">
-        <v>27.97081302798882</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.820072814028185</v>
+        <v>6.144388388680682</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.69891551216015</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.173613300543003</v>
       </c>
       <c r="M19">
-        <v>20.50029543882957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.58736600584344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12612791064056</v>
+        <v>24.1688247158445</v>
       </c>
       <c r="C20">
-        <v>24.16134820874561</v>
+        <v>11.67261177978945</v>
       </c>
       <c r="D20">
-        <v>2.991889789850812</v>
+        <v>2.099802781917578</v>
       </c>
       <c r="E20">
-        <v>8.602284950558262</v>
+        <v>6.431564259193269</v>
       </c>
       <c r="F20">
-        <v>47.65888973665187</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>46.32451647259385</v>
       </c>
       <c r="I20">
-        <v>28.38313049370443</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.893510354094818</v>
+        <v>6.130626683953531</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.0910556993891</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.227913807776281</v>
       </c>
       <c r="M20">
-        <v>20.93203312403563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.94080291166023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.90808640021593</v>
+        <v>25.66600045693518</v>
       </c>
       <c r="C21">
-        <v>25.86395624878189</v>
+        <v>12.38676924519814</v>
       </c>
       <c r="D21">
-        <v>2.950211517368866</v>
+        <v>2.135948953828694</v>
       </c>
       <c r="E21">
-        <v>9.011931416373772</v>
+        <v>6.422857605196891</v>
       </c>
       <c r="F21">
-        <v>50.55105180246918</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>48.04030942242078</v>
       </c>
       <c r="I21">
-        <v>29.78493477175325</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.14884466452629</v>
+        <v>6.086159171651637</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.37220745095111</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.413773747718157</v>
       </c>
       <c r="M21">
-        <v>22.35043028296783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.1490566203795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.04246287431218</v>
+        <v>26.6721010478388</v>
       </c>
       <c r="C22">
-        <v>26.95188257664452</v>
+        <v>12.83999449683534</v>
       </c>
       <c r="D22">
-        <v>2.926157303560023</v>
+        <v>2.160861036223428</v>
       </c>
       <c r="E22">
-        <v>9.282510976994782</v>
+        <v>6.419218415612521</v>
       </c>
       <c r="F22">
-        <v>52.43763178660839</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>49.17904133716149</v>
       </c>
       <c r="I22">
-        <v>30.71505798411432</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.322664315213522</v>
+        <v>6.058441843146504</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.1833765013109</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.537809716723073</v>
       </c>
       <c r="M22">
-        <v>23.25537793639454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.95478603540685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.43963360885193</v>
+        <v>26.13776805748648</v>
       </c>
       <c r="C23">
-        <v>26.37333257323161</v>
+        <v>12.59929900658303</v>
       </c>
       <c r="D23">
-        <v>2.938670007572882</v>
+        <v>2.147436912246801</v>
       </c>
       <c r="E23">
-        <v>9.137806907343986</v>
+        <v>6.420968133611346</v>
       </c>
       <c r="F23">
-        <v>51.43082720310499</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>48.56964140309073</v>
       </c>
       <c r="I23">
-        <v>30.21722870711872</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.229219845778728</v>
+        <v>6.07311028172812</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.75276531431355</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.471372542906729</v>
       </c>
       <c r="M23">
-        <v>22.77427480215554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.52323707104465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09645912449546</v>
+        <v>24.14481471496705</v>
       </c>
       <c r="C24">
-        <v>24.13306422156148</v>
+        <v>11.66070314496642</v>
       </c>
       <c r="D24">
-        <v>2.99261778949261</v>
+        <v>2.099231600034686</v>
       </c>
       <c r="E24">
-        <v>8.595631975184883</v>
+        <v>6.431740142493044</v>
       </c>
       <c r="F24">
-        <v>47.61151274440744</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>46.29675703104726</v>
       </c>
       <c r="I24">
-        <v>28.36042957300331</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.889446418313627</v>
+        <v>6.131375812708971</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.0696604773455</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.224919039744723</v>
       </c>
       <c r="M24">
-        <v>20.90844976657461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.9213170008654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.42507434209871</v>
+        <v>22.00022117922304</v>
       </c>
       <c r="C25">
-        <v>21.59448273020238</v>
+        <v>10.58690325812647</v>
       </c>
       <c r="D25">
-        <v>3.061603918245197</v>
+        <v>2.051855702387141</v>
       </c>
       <c r="E25">
-        <v>8.020936913801293</v>
+        <v>6.451712298163746</v>
       </c>
       <c r="F25">
-        <v>43.45905893222568</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>43.91657484990257</v>
       </c>
       <c r="I25">
-        <v>26.40787423256816</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.549498281036719</v>
+        <v>6.199841218350796</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.13582410638695</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.970030887890359</v>
       </c>
       <c r="M25">
-        <v>18.78928995720992</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.25898316409213</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
@@ -421,31 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.34434428454029</v>
+        <v>13.94840724105379</v>
       </c>
       <c r="C2">
-        <v>9.740333397356006</v>
+        <v>8.010199199349008</v>
       </c>
       <c r="D2">
-        <v>2.020090641159573</v>
+        <v>10.46597600013093</v>
       </c>
       <c r="E2">
-        <v>6.473157248042774</v>
+        <v>29.29207655445525</v>
       </c>
       <c r="F2">
-        <v>42.22421523177955</v>
+        <v>64.00348849839877</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.254948184858907</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.71656258959895</v>
+        <v>12.45703883415779</v>
       </c>
       <c r="L2">
-        <v>6.791839378518202</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.08900306788372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.17633427652303</v>
+        <v>12.89716974617546</v>
       </c>
       <c r="C3">
-        <v>9.130513959295714</v>
+        <v>7.420851034210663</v>
       </c>
       <c r="D3">
-        <v>2.000153000291156</v>
+        <v>10.00336552361387</v>
       </c>
       <c r="E3">
-        <v>6.491699197421677</v>
+        <v>27.07277052023552</v>
       </c>
       <c r="F3">
-        <v>41.11530630996089</v>
+        <v>60.27247528627483</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.295170912670105</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.8106367392353</v>
+        <v>11.55245848992122</v>
       </c>
       <c r="L3">
-        <v>6.677101208427855</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.32926479180493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.43789575494213</v>
+        <v>12.2241274639977</v>
       </c>
       <c r="C4">
-        <v>8.737997981092818</v>
+        <v>7.046299247552468</v>
       </c>
       <c r="D4">
-        <v>1.988594967903904</v>
+        <v>9.713688448247982</v>
       </c>
       <c r="E4">
-        <v>6.505002754241204</v>
+        <v>25.65710994757414</v>
       </c>
       <c r="F4">
-        <v>40.45357303986746</v>
+        <v>57.91317204325226</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.321271987538074</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.23782364181563</v>
+        <v>10.97379668200258</v>
       </c>
       <c r="L4">
-        <v>6.609671465739002</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.87909548635818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.1319013685565</v>
+        <v>11.94270462414391</v>
       </c>
       <c r="C5">
-        <v>8.573469396800437</v>
+        <v>6.890302909691562</v>
       </c>
       <c r="D5">
-        <v>1.984043587006489</v>
+        <v>9.594222210978904</v>
       </c>
       <c r="E5">
-        <v>6.510898444383775</v>
+        <v>25.06625029105439</v>
       </c>
       <c r="F5">
-        <v>40.18880040957825</v>
+        <v>56.9346476887418</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.332259520768934</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.00044314121629</v>
+        <v>10.73193309537248</v>
       </c>
       <c r="L5">
-        <v>6.582960856734041</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.69975167724124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.08079423731466</v>
+        <v>11.89553668434771</v>
       </c>
       <c r="C6">
-        <v>8.54587266845596</v>
+        <v>6.864192025852282</v>
       </c>
       <c r="D6">
-        <v>1.983297048116201</v>
+        <v>9.574299413075661</v>
       </c>
       <c r="E6">
-        <v>6.51190584335232</v>
+        <v>24.9672775300787</v>
       </c>
       <c r="F6">
-        <v>40.14513267863216</v>
+        <v>56.77113999448073</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.334105147515934</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.96079479454504</v>
+        <v>10.69140047202474</v>
       </c>
       <c r="L6">
-        <v>6.578572168231446</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.67021966712906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.43378913673232</v>
+        <v>12.22036132780348</v>
       </c>
       <c r="C7">
-        <v>8.735797642853219</v>
+        <v>7.044209258533642</v>
       </c>
       <c r="D7">
-        <v>1.988532960855415</v>
+        <v>9.712083026796702</v>
       </c>
       <c r="E7">
-        <v>6.505080355152555</v>
+        <v>25.64919875412391</v>
       </c>
       <c r="F7">
-        <v>40.44998232500225</v>
+        <v>57.90004419947699</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.321418749914838</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.23463793382765</v>
+        <v>10.97055959899781</v>
       </c>
       <c r="L7">
-        <v>6.609308118827858</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.87666017480411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9461727590204</v>
+        <v>13.59152494212688</v>
       </c>
       <c r="C8">
-        <v>9.533800381719281</v>
+        <v>7.809515240883008</v>
       </c>
       <c r="D8">
-        <v>2.013065786059092</v>
+        <v>10.30762765488686</v>
       </c>
       <c r="E8">
-        <v>6.479147249701402</v>
+        <v>28.53745158046894</v>
       </c>
       <c r="F8">
-        <v>41.83793381717091</v>
+        <v>62.73124795725607</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.268524296335036</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.40774844348138</v>
+        <v>12.14983134619961</v>
       </c>
       <c r="L8">
-        <v>6.751655800372721</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.82365996810526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.73471084782017</v>
+        <v>16.07291897568231</v>
       </c>
       <c r="C9">
-        <v>10.95711689752456</v>
+        <v>9.21860964674436</v>
       </c>
       <c r="D9">
-        <v>2.067277954484407</v>
+        <v>11.43224581319293</v>
       </c>
       <c r="E9">
-        <v>6.443909899099403</v>
+        <v>33.81402425202074</v>
       </c>
       <c r="F9">
-        <v>44.70899415929753</v>
+        <v>71.66843199173496</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.176041007466289</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.80362357332296</v>
+        <v>14.28869521263771</v>
       </c>
       <c r="L9">
-        <v>7.054427819305651</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.81044791720171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.66882056034206</v>
+        <v>17.78819210934532</v>
       </c>
       <c r="C10">
-        <v>11.9201195628081</v>
+        <v>10.21288829393217</v>
       </c>
       <c r="D10">
-        <v>2.111906590257205</v>
+        <v>12.23623772393601</v>
       </c>
       <c r="E10">
-        <v>6.428136306934884</v>
+        <v>37.50959308030506</v>
       </c>
       <c r="F10">
-        <v>46.90790072165563</v>
+        <v>77.93363352445714</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.11511184160859</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.53549100633429</v>
+        <v>15.77177358825956</v>
       </c>
       <c r="L10">
-        <v>7.290947445518073</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.35078692434214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.56505982076282</v>
+        <v>18.55027038818713</v>
       </c>
       <c r="C11">
-        <v>12.34129265877814</v>
+        <v>10.66048454869989</v>
       </c>
       <c r="D11">
-        <v>2.133534872246485</v>
+        <v>12.59873897280503</v>
       </c>
       <c r="E11">
-        <v>6.423303803856922</v>
+        <v>39.1669987780332</v>
       </c>
       <c r="F11">
-        <v>47.92813137170425</v>
+        <v>80.72955441955403</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.08896278958345</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.29073528203503</v>
+        <v>16.43211557270726</v>
       </c>
       <c r="L11">
-        <v>7.40158134143514</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>36.06984135925641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.91390598400919</v>
+        <v>18.83676394758991</v>
       </c>
       <c r="C12">
-        <v>12.49845259087621</v>
+        <v>10.82973617612714</v>
       </c>
       <c r="D12">
-        <v>2.141943380084462</v>
+        <v>12.73573069321882</v>
       </c>
       <c r="E12">
-        <v>6.421824461046803</v>
+        <v>39.79284306569951</v>
       </c>
       <c r="F12">
-        <v>48.31743349780488</v>
+        <v>81.78184059362692</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.079290946980756</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.57222829146162</v>
+        <v>16.68060953865744</v>
       </c>
       <c r="L12">
-        <v>7.443915361666503</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.34487410371005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.83899918914751</v>
+        <v>18.77514576513089</v>
       </c>
       <c r="C13">
-        <v>12.46470720130774</v>
+        <v>10.79328775234495</v>
       </c>
       <c r="D13">
-        <v>2.140122264485458</v>
+        <v>12.7062359665373</v>
       </c>
       <c r="E13">
-        <v>6.422127236542044</v>
+        <v>39.65810551163819</v>
       </c>
       <c r="F13">
-        <v>48.23345633657436</v>
+        <v>81.5554745112442</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.081363627598621</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.51180078010248</v>
+        <v>16.62715247190683</v>
       </c>
       <c r="L13">
-        <v>7.434778343374584</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.28551679065538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.59386059347287</v>
+        <v>18.5738788413738</v>
       </c>
       <c r="C14">
-        <v>12.354268346496</v>
+        <v>10.67441105371653</v>
       </c>
       <c r="D14">
-        <v>2.134222097091263</v>
+        <v>12.61001371004925</v>
       </c>
       <c r="E14">
-        <v>6.42317498690572</v>
+        <v>39.21851237871699</v>
       </c>
       <c r="F14">
-        <v>47.96009933615063</v>
+        <v>80.81624735912304</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.088162437030566</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.31398296784149</v>
+        <v>16.45258745579212</v>
       </c>
       <c r="L14">
-        <v>7.405055350863705</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>36.09241275678333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.44304840844987</v>
+        <v>18.45034249784607</v>
       </c>
       <c r="C15">
-        <v>12.28632129759636</v>
+        <v>10.60157834376212</v>
       </c>
       <c r="D15">
-        <v>2.130637395502447</v>
+        <v>12.55104481968307</v>
       </c>
       <c r="E15">
-        <v>6.423862856306921</v>
+        <v>38.94907175368765</v>
       </c>
       <c r="F15">
-        <v>47.79305005836923</v>
+        <v>80.36265260947563</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.092357041810136</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.19223344092564</v>
+        <v>16.34547415933912</v>
       </c>
       <c r="L15">
-        <v>7.386906527757928</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.97449192428383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.61245650026313</v>
+        <v>17.73806505536438</v>
       </c>
       <c r="C16">
-        <v>11.89226311822927</v>
+        <v>10.18357720464449</v>
       </c>
       <c r="D16">
-        <v>2.110522095475451</v>
+        <v>12.21249696686858</v>
       </c>
       <c r="E16">
-        <v>6.428500409070914</v>
+        <v>37.40093198265967</v>
       </c>
       <c r="F16">
-        <v>46.84163424628803</v>
+        <v>77.74992816404173</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.11685268563912</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.48549355605531</v>
+        <v>15.72837078437233</v>
       </c>
       <c r="L16">
-        <v>7.283778513423107</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.30417217390244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.11569982077781</v>
+        <v>17.29678802895365</v>
       </c>
       <c r="C17">
-        <v>11.64625960440858</v>
+        <v>9.926223577478387</v>
       </c>
       <c r="D17">
-        <v>2.098540206075302</v>
+        <v>12.00409568741002</v>
       </c>
       <c r="E17">
-        <v>6.431954812604826</v>
+        <v>36.44617756374222</v>
       </c>
       <c r="F17">
-        <v>46.26312717755995</v>
+        <v>76.13406106439213</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.132284723277531</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.04370956626904</v>
+        <v>15.34645430468919</v>
       </c>
       <c r="L17">
-        <v>7.221291536707879</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.89771311911915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.82761611424997</v>
+        <v>17.04122633257299</v>
       </c>
       <c r="C18">
-        <v>11.50316708275237</v>
+        <v>9.777727161982803</v>
       </c>
       <c r="D18">
-        <v>2.091771530641892</v>
+        <v>11.88390996937041</v>
       </c>
       <c r="E18">
-        <v>6.434161329349708</v>
+        <v>35.89467923077118</v>
       </c>
       <c r="F18">
-        <v>45.93225262335004</v>
+        <v>75.19946080651488</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.141308078198857</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.78652728578258</v>
+        <v>15.12540375189214</v>
       </c>
       <c r="L18">
-        <v>7.18563642388204</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.66564699014597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.72966948542194</v>
+        <v>16.95438231375714</v>
       </c>
       <c r="C19">
-        <v>11.45444114749477</v>
+        <v>9.727355692172919</v>
       </c>
       <c r="D19">
-        <v>2.089500117941502</v>
+        <v>11.8431575571047</v>
       </c>
       <c r="E19">
-        <v>6.434945745304478</v>
+        <v>35.70750370167693</v>
       </c>
       <c r="F19">
-        <v>45.82054297486094</v>
+        <v>74.88209450988387</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.144388388680682</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.69891551216015</v>
+        <v>15.05030883503778</v>
       </c>
       <c r="L19">
-        <v>7.173613300543003</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.58736600584344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.1688247158445</v>
+        <v>17.34394041314628</v>
       </c>
       <c r="C20">
-        <v>11.67261177978945</v>
+        <v>9.953665443548715</v>
       </c>
       <c r="D20">
-        <v>2.099802781917578</v>
+        <v>12.02631217300246</v>
       </c>
       <c r="E20">
-        <v>6.431564259193269</v>
+        <v>36.54804517076973</v>
       </c>
       <c r="F20">
-        <v>46.32451647259385</v>
+        <v>76.30660229032512</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.130626683953531</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.0910556993891</v>
+        <v>15.38724974046482</v>
       </c>
       <c r="L20">
-        <v>7.227913807776281</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.94080291166023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.66600045693518</v>
+        <v>18.63304776338816</v>
       </c>
       <c r="C21">
-        <v>12.38676924519814</v>
+        <v>10.70933072192833</v>
       </c>
       <c r="D21">
-        <v>2.135948953828694</v>
+        <v>12.63828235704901</v>
       </c>
       <c r="E21">
-        <v>6.422857605196891</v>
+        <v>39.34766501191464</v>
       </c>
       <c r="F21">
-        <v>48.04030942242078</v>
+        <v>81.03353943694351</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.086159171651637</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.37220745095111</v>
+        <v>16.50389941234838</v>
       </c>
       <c r="L21">
-        <v>7.413773747718157</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.1490566203795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.6721010478388</v>
+        <v>19.46370588815298</v>
       </c>
       <c r="C22">
-        <v>12.83999449683534</v>
+        <v>11.20205479354711</v>
       </c>
       <c r="D22">
-        <v>2.160861036223428</v>
+        <v>13.03673796303818</v>
       </c>
       <c r="E22">
-        <v>6.419218415612521</v>
+        <v>41.16804870808251</v>
       </c>
       <c r="F22">
-        <v>49.17904133716149</v>
+        <v>84.08606584744255</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.058441843146504</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.1833765013109</v>
+        <v>17.22489033715007</v>
       </c>
       <c r="L22">
-        <v>7.537809716723073</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.95478603540685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.13776805748648</v>
+        <v>19.02124806511758</v>
       </c>
       <c r="C23">
-        <v>12.59929900658303</v>
+        <v>10.93901547249348</v>
       </c>
       <c r="D23">
-        <v>2.147436912246801</v>
+        <v>12.82413597976389</v>
       </c>
       <c r="E23">
-        <v>6.420968133611346</v>
+        <v>40.19668966141887</v>
       </c>
       <c r="F23">
-        <v>48.56964140309073</v>
+        <v>82.4597029676969</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.07311028172812</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.75276531431355</v>
+        <v>16.8406983197175</v>
       </c>
       <c r="L23">
-        <v>7.471372542906729</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.52323707104465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.14481471496705</v>
+        <v>17.32262866990703</v>
       </c>
       <c r="C24">
-        <v>11.66070314496642</v>
+        <v>9.941260690585954</v>
       </c>
       <c r="D24">
-        <v>2.099231600034686</v>
+        <v>12.01626927515233</v>
       </c>
       <c r="E24">
-        <v>6.431740142493044</v>
+        <v>36.50199903397334</v>
       </c>
       <c r="F24">
-        <v>46.29675703104726</v>
+        <v>76.22861399148053</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.131375812708971</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.0696604773455</v>
+        <v>15.36881077514886</v>
       </c>
       <c r="L24">
-        <v>7.224919039744723</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.9213170008654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.00022117922304</v>
+        <v>15.42209510989286</v>
       </c>
       <c r="C25">
-        <v>10.58690325812647</v>
+        <v>8.845834624093349</v>
       </c>
       <c r="D25">
-        <v>2.051855702387141</v>
+        <v>11.13232544450224</v>
       </c>
       <c r="E25">
-        <v>6.451712298163746</v>
+        <v>32.42291095818889</v>
       </c>
       <c r="F25">
-        <v>43.91657484990257</v>
+        <v>69.30634411710734</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.199841218350796</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.13582410638695</v>
+        <v>13.72702072204116</v>
       </c>
       <c r="L25">
-        <v>6.970030887890359</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.25898316409213</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.94840724105379</v>
+        <v>11.83567917099364</v>
       </c>
       <c r="C2">
-        <v>8.010199199349008</v>
+        <v>4.347754598935256</v>
       </c>
       <c r="D2">
-        <v>10.46597600013093</v>
+        <v>8.94793479154678</v>
       </c>
       <c r="E2">
-        <v>29.29207655445525</v>
+        <v>16.26076764462828</v>
       </c>
       <c r="F2">
-        <v>64.00348849839877</v>
+        <v>48.67805088739635</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.45703883415779</v>
+        <v>11.26397376326657</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.89716974617546</v>
+        <v>11.67813693589333</v>
       </c>
       <c r="C3">
-        <v>7.420851034210663</v>
+        <v>4.214988554051165</v>
       </c>
       <c r="D3">
-        <v>10.00336552361387</v>
+        <v>8.780091474645404</v>
       </c>
       <c r="E3">
-        <v>27.07277052023552</v>
+        <v>15.35067858270836</v>
       </c>
       <c r="F3">
-        <v>60.27247528627483</v>
+        <v>47.30757573533351</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.55245848992122</v>
+        <v>11.19011341761214</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2241274639977</v>
+        <v>11.58636506302979</v>
       </c>
       <c r="C4">
-        <v>7.046299247552468</v>
+        <v>4.135341705279252</v>
       </c>
       <c r="D4">
-        <v>9.713688448247982</v>
+        <v>8.674561699303432</v>
       </c>
       <c r="E4">
-        <v>25.65710994757414</v>
+        <v>14.76924474061026</v>
       </c>
       <c r="F4">
-        <v>57.91317204325226</v>
+        <v>46.44854087176764</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.97379668200258</v>
+        <v>11.15011589207219</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94270462414391</v>
+        <v>11.55026953716691</v>
       </c>
       <c r="C5">
-        <v>6.890302909691562</v>
+        <v>4.103436937274478</v>
       </c>
       <c r="D5">
-        <v>9.594222210978904</v>
+        <v>8.630961405431387</v>
       </c>
       <c r="E5">
-        <v>25.06625029105439</v>
+        <v>14.5268904505529</v>
       </c>
       <c r="F5">
-        <v>56.9346476887418</v>
+        <v>46.0944697873051</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.73193309537248</v>
+        <v>11.13517871219906</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.89553668434771</v>
+        <v>11.54435609469581</v>
       </c>
       <c r="C6">
-        <v>6.864192025852282</v>
+        <v>4.098174906308482</v>
       </c>
       <c r="D6">
-        <v>9.574299413075661</v>
+        <v>8.623686385272302</v>
       </c>
       <c r="E6">
-        <v>24.9672775300787</v>
+        <v>14.48632975882478</v>
       </c>
       <c r="F6">
-        <v>56.77113999448073</v>
+        <v>46.03544694542007</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.69140047202474</v>
+        <v>11.1327810834921</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22036132780348</v>
+        <v>11.58587292335374</v>
       </c>
       <c r="C7">
-        <v>7.044209258533642</v>
+        <v>4.134909083424325</v>
       </c>
       <c r="D7">
-        <v>9.712083026796702</v>
+        <v>8.673976068866661</v>
       </c>
       <c r="E7">
-        <v>25.64919875412391</v>
+        <v>14.76599778755948</v>
       </c>
       <c r="F7">
-        <v>57.90004419947699</v>
+        <v>46.44378141327917</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.97055959899781</v>
+        <v>11.14990891000375</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.59152494212688</v>
+        <v>11.78036335212127</v>
       </c>
       <c r="C8">
-        <v>7.809515240883008</v>
+        <v>4.301636603089055</v>
       </c>
       <c r="D8">
-        <v>10.30762765488686</v>
+        <v>8.890590948904643</v>
       </c>
       <c r="E8">
-        <v>28.53745158046894</v>
+        <v>15.95181725065423</v>
       </c>
       <c r="F8">
-        <v>62.73124795725607</v>
+        <v>48.20939132980867</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.14983134619961</v>
+        <v>11.23740628242696</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07291897568231</v>
+        <v>12.19852778953464</v>
       </c>
       <c r="C9">
-        <v>9.21860964674436</v>
+        <v>4.639975696130927</v>
       </c>
       <c r="D9">
-        <v>11.43224581319293</v>
+        <v>9.294669016677037</v>
       </c>
       <c r="E9">
-        <v>33.81402425202074</v>
+        <v>18.09520718372757</v>
       </c>
       <c r="F9">
-        <v>71.66843199173496</v>
+        <v>51.51592903586712</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.28869521263771</v>
+        <v>11.45060662414398</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.78819210934532</v>
+        <v>12.5245377967305</v>
       </c>
       <c r="C10">
-        <v>10.21288829393217</v>
+        <v>4.956420271253482</v>
       </c>
       <c r="D10">
-        <v>12.23623772393601</v>
+        <v>9.577567885519773</v>
       </c>
       <c r="E10">
-        <v>37.50959308030506</v>
+        <v>19.7183699563193</v>
       </c>
       <c r="F10">
-        <v>77.93363352445714</v>
+        <v>53.83016464184863</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.77177358825956</v>
+        <v>11.63127218317543</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.55027038818713</v>
+        <v>12.67612780060946</v>
       </c>
       <c r="C11">
-        <v>10.66048454869989</v>
+        <v>5.13513772057759</v>
       </c>
       <c r="D11">
-        <v>12.59873897280503</v>
+        <v>9.702968576233319</v>
       </c>
       <c r="E11">
-        <v>39.1669987780332</v>
+        <v>20.41597673032961</v>
       </c>
       <c r="F11">
-        <v>80.72955441955403</v>
+        <v>54.85430601257142</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.43211557270726</v>
+        <v>11.71834083024936</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.83676394758991</v>
+        <v>12.73393651624357</v>
       </c>
       <c r="C12">
-        <v>10.82973617612714</v>
+        <v>5.201349327230122</v>
       </c>
       <c r="D12">
-        <v>12.73573069321882</v>
+        <v>9.749960865131113</v>
       </c>
       <c r="E12">
-        <v>39.79284306569951</v>
+        <v>20.67431822616799</v>
       </c>
       <c r="F12">
-        <v>81.78184059362692</v>
+        <v>55.23773712079586</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.68060953865744</v>
+        <v>11.75198229709537</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.77514576513089</v>
+        <v>12.72146943886117</v>
       </c>
       <c r="C13">
-        <v>10.79328775234495</v>
+        <v>5.187154467468088</v>
       </c>
       <c r="D13">
-        <v>12.7062359665373</v>
+        <v>9.739862534990964</v>
       </c>
       <c r="E13">
-        <v>39.65810551163819</v>
+        <v>20.61893833800332</v>
       </c>
       <c r="F13">
-        <v>81.5554745112442</v>
+        <v>55.15535765127839</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.62715247190683</v>
+        <v>11.744707708544</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.5738788413738</v>
+        <v>12.68087602963644</v>
       </c>
       <c r="C14">
-        <v>10.67441105371653</v>
+        <v>5.140614291093901</v>
       </c>
       <c r="D14">
-        <v>12.61001371004925</v>
+        <v>9.706844680352811</v>
       </c>
       <c r="E14">
-        <v>39.21851237871699</v>
+        <v>20.4373472131121</v>
       </c>
       <c r="F14">
-        <v>80.81624735912304</v>
+        <v>54.88594055689418</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.45258745579212</v>
+        <v>11.72109528440813</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.45034249784607</v>
+        <v>12.6560621221567</v>
       </c>
       <c r="C15">
-        <v>10.60157834376212</v>
+        <v>5.111916613627521</v>
       </c>
       <c r="D15">
-        <v>12.55104481968307</v>
+        <v>9.686555329300091</v>
       </c>
       <c r="E15">
-        <v>38.94907175368765</v>
+        <v>20.32535964171173</v>
       </c>
       <c r="F15">
-        <v>80.36265260947563</v>
+        <v>54.7203355560064</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.34547415933912</v>
+        <v>11.70671833722692</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73806505536438</v>
+        <v>12.51469136335718</v>
       </c>
       <c r="C16">
-        <v>10.18357720464449</v>
+        <v>4.944535161009279</v>
       </c>
       <c r="D16">
-        <v>12.21249696686858</v>
+        <v>9.569304604059447</v>
       </c>
       <c r="E16">
-        <v>37.40093198265967</v>
+        <v>19.67196230152317</v>
       </c>
       <c r="F16">
-        <v>77.74992816404173</v>
+        <v>53.76263472220572</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.72837078437233</v>
+        <v>11.62567762878973</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.29678802895365</v>
+        <v>12.42875837701747</v>
       </c>
       <c r="C17">
-        <v>9.926223577478387</v>
+        <v>4.839232722154143</v>
       </c>
       <c r="D17">
-        <v>12.00409568741002</v>
+        <v>9.496516754917586</v>
       </c>
       <c r="E17">
-        <v>36.44617756374222</v>
+        <v>19.26070616827268</v>
       </c>
       <c r="F17">
-        <v>76.13406106439213</v>
+        <v>53.16758341137174</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.34645430468919</v>
+        <v>11.57719041949066</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.04122633257299</v>
+        <v>12.37964536786099</v>
       </c>
       <c r="C18">
-        <v>9.777727161982803</v>
+        <v>4.780592728263606</v>
       </c>
       <c r="D18">
-        <v>11.88390996937041</v>
+        <v>9.454342471934851</v>
       </c>
       <c r="E18">
-        <v>35.89467923077118</v>
+        <v>19.0203220969524</v>
       </c>
       <c r="F18">
-        <v>75.19946080651488</v>
+        <v>52.82264678763443</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.12540375189214</v>
+        <v>11.54976348566148</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.95438231375714</v>
+        <v>12.36307244055631</v>
       </c>
       <c r="C19">
-        <v>9.727355692172919</v>
+        <v>4.767846018382345</v>
       </c>
       <c r="D19">
-        <v>11.8431575571047</v>
+        <v>9.440010635263357</v>
       </c>
       <c r="E19">
-        <v>35.70750370167693</v>
+        <v>18.9382714620453</v>
       </c>
       <c r="F19">
-        <v>74.88209450988387</v>
+        <v>52.70540587398288</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.05030883503778</v>
+        <v>11.54055741972867</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.34394041314628</v>
+        <v>12.43787414973991</v>
       </c>
       <c r="C20">
-        <v>9.953665443548715</v>
+        <v>4.850542222962359</v>
       </c>
       <c r="D20">
-        <v>12.02631217300246</v>
+        <v>9.504297244345784</v>
       </c>
       <c r="E20">
-        <v>36.54804517076973</v>
+        <v>19.30488228760303</v>
       </c>
       <c r="F20">
-        <v>76.30660229032512</v>
+        <v>53.23120696085179</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.38724974046482</v>
+        <v>11.58230441343479</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.63304776338816</v>
+        <v>12.69278884607351</v>
       </c>
       <c r="C21">
-        <v>10.70933072192833</v>
+        <v>5.154323946790879</v>
       </c>
       <c r="D21">
-        <v>12.63828235704901</v>
+        <v>9.716556398066171</v>
       </c>
       <c r="E21">
-        <v>39.34766501191464</v>
+        <v>20.49084278024596</v>
       </c>
       <c r="F21">
-        <v>81.03353943694351</v>
+        <v>54.96519605525668</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.50389941234838</v>
+        <v>11.72801289047393</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.46370588815298</v>
+        <v>12.86171943648857</v>
       </c>
       <c r="C22">
-        <v>11.20205479354711</v>
+        <v>5.344329282107955</v>
       </c>
       <c r="D22">
-        <v>13.03673796303818</v>
+        <v>9.852390507646664</v>
       </c>
       <c r="E22">
-        <v>41.16804870808251</v>
+        <v>21.23198899797753</v>
       </c>
       <c r="F22">
-        <v>84.08606584744255</v>
+        <v>56.07276731222988</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.22489033715007</v>
+        <v>11.82713396140721</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.02124806511758</v>
+        <v>12.77136705321089</v>
       </c>
       <c r="C23">
-        <v>10.93901547249348</v>
+        <v>5.243697497079832</v>
       </c>
       <c r="D23">
-        <v>12.82413597976389</v>
+        <v>9.780164245486588</v>
       </c>
       <c r="E23">
-        <v>40.19668966141887</v>
+        <v>20.83951939242089</v>
       </c>
       <c r="F23">
-        <v>82.4597029676969</v>
+        <v>55.48407004626327</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.8406983197175</v>
+        <v>11.77388593053781</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.32262866990703</v>
+        <v>12.43375199731877</v>
       </c>
       <c r="C24">
-        <v>9.941260690585954</v>
+        <v>4.845432291676664</v>
       </c>
       <c r="D24">
-        <v>12.01626927515233</v>
+        <v>9.500780703808122</v>
       </c>
       <c r="E24">
-        <v>36.50199903397334</v>
+        <v>19.28492256224138</v>
       </c>
       <c r="F24">
-        <v>76.22861399148053</v>
+        <v>53.20245155938685</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.36881077514886</v>
+        <v>11.57999097582579</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.42209510989286</v>
+        <v>12.08183514572718</v>
       </c>
       <c r="C25">
-        <v>8.845834624093349</v>
+        <v>4.547697622136201</v>
       </c>
       <c r="D25">
-        <v>11.13232544450224</v>
+        <v>9.187716290592022</v>
       </c>
       <c r="E25">
-        <v>32.42291095818889</v>
+        <v>17.53147427128374</v>
       </c>
       <c r="F25">
-        <v>69.30634411710734</v>
+        <v>50.64028923727951</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.72702072204116</v>
+        <v>11.38860331065441</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.83567917099364</v>
+        <v>13.94840724105388</v>
       </c>
       <c r="C2">
-        <v>4.347754598935256</v>
+        <v>8.010199199348929</v>
       </c>
       <c r="D2">
-        <v>8.94793479154678</v>
+        <v>10.46597600013096</v>
       </c>
       <c r="E2">
-        <v>16.26076764462828</v>
+        <v>29.29207655445529</v>
       </c>
       <c r="F2">
-        <v>48.67805088739635</v>
+        <v>64.00348849839888</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.26397376326657</v>
+        <v>12.45703883415787</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.67813693589333</v>
+        <v>12.8971697461755</v>
       </c>
       <c r="C3">
-        <v>4.214988554051165</v>
+        <v>7.420851034210905</v>
       </c>
       <c r="D3">
-        <v>8.780091474645404</v>
+        <v>10.00336552361387</v>
       </c>
       <c r="E3">
-        <v>15.35067858270836</v>
+        <v>27.07277052023571</v>
       </c>
       <c r="F3">
-        <v>47.30757573533351</v>
+        <v>60.27247528627488</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.19011341761214</v>
+        <v>11.55245848992127</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.58636506302979</v>
+        <v>12.2241274639977</v>
       </c>
       <c r="C4">
-        <v>4.135341705279252</v>
+        <v>7.046299247552492</v>
       </c>
       <c r="D4">
-        <v>8.674561699303432</v>
+        <v>9.713688448248156</v>
       </c>
       <c r="E4">
-        <v>14.76924474061026</v>
+        <v>25.65710994757409</v>
       </c>
       <c r="F4">
-        <v>46.44854087176764</v>
+        <v>57.91317204325212</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.15011589207219</v>
+        <v>10.97379668200258</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.55026953716691</v>
+        <v>11.94270462414391</v>
       </c>
       <c r="C5">
-        <v>4.103436937274478</v>
+        <v>6.890302909691839</v>
       </c>
       <c r="D5">
-        <v>8.630961405431387</v>
+        <v>9.594222210978936</v>
       </c>
       <c r="E5">
-        <v>14.5268904505529</v>
+        <v>25.06625029105439</v>
       </c>
       <c r="F5">
-        <v>46.0944697873051</v>
+        <v>56.93464768874213</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.13517871219906</v>
+        <v>10.7319330953725</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.54435609469581</v>
+        <v>11.89553668434771</v>
       </c>
       <c r="C6">
-        <v>4.098174906308482</v>
+        <v>6.864192025852442</v>
       </c>
       <c r="D6">
-        <v>8.623686385272302</v>
+        <v>9.574299413075622</v>
       </c>
       <c r="E6">
-        <v>14.48632975882478</v>
+        <v>24.96727753007876</v>
       </c>
       <c r="F6">
-        <v>46.03544694542007</v>
+        <v>56.77113999448066</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.1327810834921</v>
+        <v>10.69140047202479</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.58587292335374</v>
+        <v>12.22036132780335</v>
       </c>
       <c r="C7">
-        <v>4.134909083424325</v>
+        <v>7.044209258533578</v>
       </c>
       <c r="D7">
-        <v>8.673976068866661</v>
+        <v>9.71208302679673</v>
       </c>
       <c r="E7">
-        <v>14.76599778755948</v>
+        <v>25.64919875412379</v>
       </c>
       <c r="F7">
-        <v>46.44378141327917</v>
+        <v>57.90004419947674</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.14990891000375</v>
+        <v>10.97055959899766</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.78036335212127</v>
+        <v>13.59152494212697</v>
       </c>
       <c r="C8">
-        <v>4.301636603089055</v>
+        <v>7.809515240882975</v>
       </c>
       <c r="D8">
-        <v>8.890590948904643</v>
+        <v>10.30762765488685</v>
       </c>
       <c r="E8">
-        <v>15.95181725065423</v>
+        <v>28.53745158046885</v>
       </c>
       <c r="F8">
-        <v>48.20939132980867</v>
+        <v>62.73124795725612</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.23740628242696</v>
+        <v>12.14983134619969</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.19852778953464</v>
+        <v>16.07291897568245</v>
       </c>
       <c r="C9">
-        <v>4.639975696130927</v>
+        <v>9.218609646744339</v>
       </c>
       <c r="D9">
-        <v>9.294669016677037</v>
+        <v>11.43224581319296</v>
       </c>
       <c r="E9">
-        <v>18.09520718372757</v>
+        <v>33.81402425202077</v>
       </c>
       <c r="F9">
-        <v>51.51592903586712</v>
+        <v>71.66843199173547</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.45060662414398</v>
+        <v>14.28869521263784</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.5245377967305</v>
+        <v>17.78819210934533</v>
       </c>
       <c r="C10">
-        <v>4.956420271253482</v>
+        <v>10.21288829393226</v>
       </c>
       <c r="D10">
-        <v>9.577567885519773</v>
+        <v>12.23623772393591</v>
       </c>
       <c r="E10">
-        <v>19.7183699563193</v>
+        <v>37.50959308030511</v>
       </c>
       <c r="F10">
-        <v>53.83016464184863</v>
+        <v>77.93363352445701</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.63127218317543</v>
+        <v>15.77177358825954</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.67612780060946</v>
+        <v>18.55027038818712</v>
       </c>
       <c r="C11">
-        <v>5.13513772057759</v>
+        <v>10.66048454870005</v>
       </c>
       <c r="D11">
-        <v>9.702968576233319</v>
+        <v>12.59873897280505</v>
       </c>
       <c r="E11">
-        <v>20.41597673032961</v>
+        <v>39.16699877803318</v>
       </c>
       <c r="F11">
-        <v>54.85430601257142</v>
+        <v>80.72955441955418</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.71834083024936</v>
+        <v>16.43211557270726</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.73393651624357</v>
+        <v>18.83676394759</v>
       </c>
       <c r="C12">
-        <v>5.201349327230122</v>
+        <v>10.82973617612722</v>
       </c>
       <c r="D12">
-        <v>9.749960865131113</v>
+        <v>12.73573069321892</v>
       </c>
       <c r="E12">
-        <v>20.67431822616799</v>
+        <v>39.79284306569951</v>
       </c>
       <c r="F12">
-        <v>55.23773712079586</v>
+        <v>81.78184059362744</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.75198229709537</v>
+        <v>16.68060953865752</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.72146943886117</v>
+        <v>18.77514576513092</v>
       </c>
       <c r="C13">
-        <v>5.187154467468088</v>
+        <v>10.79328775234486</v>
       </c>
       <c r="D13">
-        <v>9.739862534990964</v>
+        <v>12.70623596653734</v>
       </c>
       <c r="E13">
-        <v>20.61893833800332</v>
+        <v>39.6581055116384</v>
       </c>
       <c r="F13">
-        <v>55.15535765127839</v>
+        <v>81.55547451124417</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.744707708544</v>
+        <v>16.62715247190681</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.68087602963644</v>
+        <v>18.57387884137379</v>
       </c>
       <c r="C14">
-        <v>5.140614291093901</v>
+        <v>10.67441105371674</v>
       </c>
       <c r="D14">
-        <v>9.706844680352811</v>
+        <v>12.61001371004924</v>
       </c>
       <c r="E14">
-        <v>20.4373472131121</v>
+        <v>39.21851237871707</v>
       </c>
       <c r="F14">
-        <v>54.88594055689418</v>
+        <v>80.81624735912312</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.72109528440813</v>
+        <v>16.45258745579217</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.6560621221567</v>
+        <v>18.45034249784617</v>
       </c>
       <c r="C15">
-        <v>5.111916613627521</v>
+        <v>10.60157834376204</v>
       </c>
       <c r="D15">
-        <v>9.686555329300091</v>
+        <v>12.55104481968328</v>
       </c>
       <c r="E15">
-        <v>20.32535964171173</v>
+        <v>38.9490717536878</v>
       </c>
       <c r="F15">
-        <v>54.7203355560064</v>
+        <v>80.36265260947636</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.70671833722692</v>
+        <v>16.34547415933916</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.51469136335718</v>
+        <v>17.7380650553644</v>
       </c>
       <c r="C16">
-        <v>4.944535161009279</v>
+        <v>10.18357720464436</v>
       </c>
       <c r="D16">
-        <v>9.569304604059447</v>
+        <v>12.21249696686857</v>
       </c>
       <c r="E16">
-        <v>19.67196230152317</v>
+        <v>37.40093198265965</v>
       </c>
       <c r="F16">
-        <v>53.76263472220572</v>
+        <v>77.74992816404131</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.62567762878973</v>
+        <v>15.72837078437229</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.42875837701747</v>
+        <v>17.29678802895356</v>
       </c>
       <c r="C17">
-        <v>4.839232722154143</v>
+        <v>9.926223577478767</v>
       </c>
       <c r="D17">
-        <v>9.496516754917586</v>
+        <v>12.00409568740998</v>
       </c>
       <c r="E17">
-        <v>19.26070616827268</v>
+        <v>36.44617756374222</v>
       </c>
       <c r="F17">
-        <v>53.16758341137174</v>
+        <v>76.13406106439159</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.57719041949066</v>
+        <v>15.34645430468925</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.37964536786099</v>
+        <v>17.0412263325731</v>
       </c>
       <c r="C18">
-        <v>4.780592728263606</v>
+        <v>9.777727161982991</v>
       </c>
       <c r="D18">
-        <v>9.454342471934851</v>
+        <v>11.88390996937057</v>
       </c>
       <c r="E18">
-        <v>19.0203220969524</v>
+        <v>35.89467923077127</v>
       </c>
       <c r="F18">
-        <v>52.82264678763443</v>
+        <v>75.19946080651543</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.54976348566148</v>
+        <v>15.12540375189228</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.36307244055631</v>
+        <v>16.95438231375719</v>
       </c>
       <c r="C19">
-        <v>4.767846018382345</v>
+        <v>9.727355692172564</v>
       </c>
       <c r="D19">
-        <v>9.440010635263357</v>
+        <v>11.84315755710479</v>
       </c>
       <c r="E19">
-        <v>18.9382714620453</v>
+        <v>35.70750370167681</v>
       </c>
       <c r="F19">
-        <v>52.70540587398288</v>
+        <v>74.88209450988431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.54055741972867</v>
+        <v>15.05030883503776</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.43787414973991</v>
+        <v>17.34394041314618</v>
       </c>
       <c r="C20">
-        <v>4.850542222962359</v>
+        <v>9.953665443548845</v>
       </c>
       <c r="D20">
-        <v>9.504297244345784</v>
+        <v>12.02631217300249</v>
       </c>
       <c r="E20">
-        <v>19.30488228760303</v>
+        <v>36.54804517076987</v>
       </c>
       <c r="F20">
-        <v>53.23120696085179</v>
+        <v>76.30660229032506</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.58230441343479</v>
+        <v>15.38724974046481</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.69278884607351</v>
+        <v>18.63304776338803</v>
       </c>
       <c r="C21">
-        <v>5.154323946790879</v>
+        <v>10.70933072192801</v>
       </c>
       <c r="D21">
-        <v>9.716556398066171</v>
+        <v>12.63828235704908</v>
       </c>
       <c r="E21">
-        <v>20.49084278024596</v>
+        <v>39.34766501191463</v>
       </c>
       <c r="F21">
-        <v>54.96519605525668</v>
+        <v>81.0335394369434</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.72801289047393</v>
+        <v>16.5038994123482</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.86171943648857</v>
+        <v>19.46370588815283</v>
       </c>
       <c r="C22">
-        <v>5.344329282107955</v>
+        <v>11.20205479354712</v>
       </c>
       <c r="D22">
-        <v>9.852390507646664</v>
+        <v>13.03673796303803</v>
       </c>
       <c r="E22">
-        <v>21.23198899797753</v>
+        <v>41.16804870808241</v>
       </c>
       <c r="F22">
-        <v>56.07276731222988</v>
+        <v>84.08606584744156</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.82713396140721</v>
+        <v>17.22489033714994</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.77136705321089</v>
+        <v>19.02124806511754</v>
       </c>
       <c r="C23">
-        <v>5.243697497079832</v>
+        <v>10.93901547249347</v>
       </c>
       <c r="D23">
-        <v>9.780164245486588</v>
+        <v>12.82413597976404</v>
       </c>
       <c r="E23">
-        <v>20.83951939242089</v>
+        <v>40.19668966141878</v>
       </c>
       <c r="F23">
-        <v>55.48407004626327</v>
+        <v>82.45970296769713</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.77388593053781</v>
+        <v>16.84069831971751</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.43375199731877</v>
+        <v>17.322628669907</v>
       </c>
       <c r="C24">
-        <v>4.845432291676664</v>
+        <v>9.941260690586006</v>
       </c>
       <c r="D24">
-        <v>9.500780703808122</v>
+        <v>12.01626927515244</v>
       </c>
       <c r="E24">
-        <v>19.28492256224138</v>
+        <v>36.50199903397336</v>
       </c>
       <c r="F24">
-        <v>53.20245155938685</v>
+        <v>76.22861399148103</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.57999097582579</v>
+        <v>15.36881077514887</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.08183514572718</v>
+        <v>15.42209510989287</v>
       </c>
       <c r="C25">
-        <v>4.547697622136201</v>
+        <v>8.845834624093291</v>
       </c>
       <c r="D25">
-        <v>9.187716290592022</v>
+        <v>11.13232544450222</v>
       </c>
       <c r="E25">
-        <v>17.53147427128374</v>
+        <v>32.42291095818884</v>
       </c>
       <c r="F25">
-        <v>50.64028923727951</v>
+        <v>69.30634411710726</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.38860331065441</v>
+        <v>13.72702072204117</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.94840724105388</v>
+        <v>13.68771286264087</v>
       </c>
       <c r="C2">
-        <v>8.010199199348929</v>
+        <v>7.041412013256175</v>
       </c>
       <c r="D2">
-        <v>10.46597600013096</v>
+        <v>5.364257414986726</v>
       </c>
       <c r="E2">
-        <v>29.29207655445529</v>
+        <v>7.600731679727566</v>
       </c>
       <c r="F2">
-        <v>64.00348849839888</v>
+        <v>24.63765677407128</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>3.347316912850809</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.052897052123491</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>12.45703883415787</v>
+        <v>17.94491840308918</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.837443567582325</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.34196929289857</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.794353020178533</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>18.5527126071492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.8971697461755</v>
+        <v>12.82039242133731</v>
       </c>
       <c r="C3">
-        <v>7.420851034210905</v>
+        <v>6.80241990837377</v>
       </c>
       <c r="D3">
-        <v>10.00336552361387</v>
+        <v>5.148897734552907</v>
       </c>
       <c r="E3">
-        <v>27.07277052023571</v>
+        <v>7.437584557441869</v>
       </c>
       <c r="F3">
-        <v>60.27247528627488</v>
+        <v>24.45766073183658</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.543582605697372</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.2059135233257</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>11.55245848992127</v>
+        <v>18.01366852125226</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.796333732206568</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.68944395431967</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.591314635733279</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>18.55773823496728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2241274639977</v>
+        <v>12.2564416727356</v>
       </c>
       <c r="C4">
-        <v>7.046299247552492</v>
+        <v>6.652250580887155</v>
       </c>
       <c r="D4">
-        <v>9.713688448248156</v>
+        <v>5.013077021088121</v>
       </c>
       <c r="E4">
-        <v>25.65710994757409</v>
+        <v>7.334853636430981</v>
       </c>
       <c r="F4">
-        <v>57.91317204325212</v>
+        <v>24.35326792862061</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.668624098846212</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.303972041040582</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.97379668200258</v>
+        <v>18.059306353331</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.770072427228287</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.26768892733961</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.464357088081593</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>18.56611480721755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94270462414391</v>
+        <v>12.016790784267</v>
       </c>
       <c r="C5">
-        <v>6.890302909691839</v>
+        <v>6.594935784292479</v>
       </c>
       <c r="D5">
-        <v>9.594222210978936</v>
+        <v>4.958100868199295</v>
       </c>
       <c r="E5">
-        <v>25.06625029105439</v>
+        <v>7.291354617309858</v>
       </c>
       <c r="F5">
-        <v>56.93464768874213</v>
+        <v>24.30391955625463</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.721050319443618</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.347338402841452</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.7319330953725</v>
+        <v>18.07290871434692</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.75850708769363</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.09213390158433</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.413645675346396</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>18.56492144157922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.89553668434771</v>
+        <v>11.97410740022426</v>
       </c>
       <c r="C6">
-        <v>6.864192025852442</v>
+        <v>6.591165100929969</v>
       </c>
       <c r="D6">
-        <v>9.574299413075622</v>
+        <v>4.950399482382167</v>
       </c>
       <c r="E6">
-        <v>24.96727753007876</v>
+        <v>7.282847126262924</v>
       </c>
       <c r="F6">
-        <v>56.77113999448066</v>
+        <v>24.28561195960231</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.730211904247221</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.357620572841311</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.69140047202479</v>
+        <v>18.06808447158935</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.755830470570551</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.06457927066986</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.407088633739903</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>18.5575822594277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22036132780335</v>
+        <v>12.24678614419647</v>
       </c>
       <c r="C7">
-        <v>7.044209258533578</v>
+        <v>6.667166651074787</v>
       </c>
       <c r="D7">
-        <v>9.71208302679673</v>
+        <v>5.016309455153047</v>
       </c>
       <c r="E7">
-        <v>25.64919875412379</v>
+        <v>7.330895325945426</v>
       </c>
       <c r="F7">
-        <v>57.90004419947674</v>
+        <v>24.32483932633041</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.670361193343121</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.3125327962183</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.97055959899766</v>
+        <v>18.04004033615125</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.767914918827631</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.27046552797343</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.46879313470512</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>18.54642947566702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.59152494212697</v>
+        <v>13.38726042031776</v>
       </c>
       <c r="C8">
-        <v>7.809515240882975</v>
+        <v>6.979890293494824</v>
       </c>
       <c r="D8">
-        <v>10.30762765488685</v>
+        <v>5.295775323149448</v>
       </c>
       <c r="E8">
-        <v>28.53745158046885</v>
+        <v>7.540718881210847</v>
       </c>
       <c r="F8">
-        <v>62.73124795725612</v>
+        <v>24.53817712084696</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.415340407486124</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.114896448264073</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.14983134619969</v>
+        <v>17.94236285047977</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.8209188474056</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.12775057590784</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.731386201828572</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>18.52756101915905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07291897568245</v>
+        <v>15.38954142959904</v>
       </c>
       <c r="C9">
-        <v>9.218609646744339</v>
+        <v>7.538189391916523</v>
       </c>
       <c r="D9">
-        <v>11.43224581319296</v>
+        <v>5.806118157695654</v>
       </c>
       <c r="E9">
-        <v>33.81402425202077</v>
+        <v>7.936472790731859</v>
       </c>
       <c r="F9">
-        <v>71.66843199173547</v>
+        <v>25.05376465110657</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.948864614096292</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.74643546958173</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>14.28869521263784</v>
+        <v>17.81329586877</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.920236491871282</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.63129548524232</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.217252179534693</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>18.56877402103509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.78819210934533</v>
+        <v>16.72458036984873</v>
       </c>
       <c r="C10">
-        <v>10.21288829393226</v>
+        <v>7.962920397911248</v>
       </c>
       <c r="D10">
-        <v>12.23623772393591</v>
+        <v>6.128064478591191</v>
       </c>
       <c r="E10">
-        <v>37.50959308030511</v>
+        <v>8.126517955823196</v>
       </c>
       <c r="F10">
-        <v>77.93363352445701</v>
+        <v>25.3045067280404</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.653039901949606</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.504402116382605</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>15.77177358825954</v>
+        <v>17.65071586968158</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.963737366131975</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.63982357210153</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.488442173581309</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>18.53042796893379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.55027038818712</v>
+        <v>17.19374661827461</v>
       </c>
       <c r="C11">
-        <v>10.66048454870005</v>
+        <v>8.406436901898118</v>
       </c>
       <c r="D11">
-        <v>12.59873897280505</v>
+        <v>5.991728075143147</v>
       </c>
       <c r="E11">
-        <v>39.16699877803318</v>
+        <v>7.521534202284388</v>
       </c>
       <c r="F11">
-        <v>80.72955441955418</v>
+        <v>24.14004499103848</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.398331135451143</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.453371703230865</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>16.43211557270726</v>
+        <v>16.90364672682762</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.819590754079906</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.13904789043401</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.995550189531125</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>17.73645942549894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.83676394759</v>
+        <v>17.32682118830347</v>
       </c>
       <c r="C12">
-        <v>10.82973617612722</v>
+        <v>8.686169402700905</v>
       </c>
       <c r="D12">
-        <v>12.73573069321892</v>
+        <v>5.800843258775114</v>
       </c>
       <c r="E12">
-        <v>39.79284306569951</v>
+        <v>7.046319036589538</v>
       </c>
       <c r="F12">
-        <v>81.78184059362744</v>
+        <v>23.14274858481086</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.600772629594469</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.442682032555179</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>16.68060953865752</v>
+        <v>16.35570943016506</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.753272469559912</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.35076552048367</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.526169762556338</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>17.10755232066211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.77514576513092</v>
+        <v>17.20621983993126</v>
       </c>
       <c r="C13">
-        <v>10.79328775234486</v>
+        <v>8.881244430425999</v>
       </c>
       <c r="D13">
-        <v>12.70623596653734</v>
+        <v>5.557202567635004</v>
       </c>
       <c r="E13">
-        <v>39.6581055116384</v>
+        <v>6.648906580436094</v>
       </c>
       <c r="F13">
-        <v>81.55547451124417</v>
+        <v>22.17088281919725</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.928493299435924</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.475541654875963</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>16.62715247190681</v>
+        <v>15.90270638686916</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.739770466546814</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.36657540244481</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.050928907732301</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>16.53979141512544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.57387884137379</v>
+        <v>17.00381720698812</v>
       </c>
       <c r="C14">
-        <v>10.67441105371674</v>
+        <v>8.987053271759644</v>
       </c>
       <c r="D14">
-        <v>12.61001371004924</v>
+        <v>5.361363981384162</v>
       </c>
       <c r="E14">
-        <v>39.21851237871707</v>
+        <v>6.426398148662685</v>
       </c>
       <c r="F14">
-        <v>80.81624735912312</v>
+        <v>21.50143569292024</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.894750794633063</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.520724335213579</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>16.45258745579217</v>
+        <v>15.63227097522342</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.761862750433879</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.29059756913841</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.720902500987581</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>16.17121148878001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.45034249784617</v>
+        <v>16.89727545254851</v>
       </c>
       <c r="C15">
-        <v>10.60157834376204</v>
+        <v>8.999953041191775</v>
       </c>
       <c r="D15">
-        <v>12.55104481968328</v>
+        <v>5.303670926482389</v>
       </c>
       <c r="E15">
-        <v>38.9490717536878</v>
+        <v>6.378875410345401</v>
       </c>
       <c r="F15">
-        <v>80.36265260947636</v>
+        <v>21.33661905443548</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.123181255497911</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.545306480874414</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.34547415933916</v>
+        <v>15.57977895875725</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.76995553313442</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.2313063759516</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.639415155959786</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>16.08894928220287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.7380650553644</v>
+        <v>16.36573279034119</v>
       </c>
       <c r="C16">
-        <v>10.18357720464436</v>
+        <v>8.800566161625932</v>
       </c>
       <c r="D16">
-        <v>12.21249696686857</v>
+        <v>5.208128721823954</v>
       </c>
       <c r="E16">
-        <v>37.40093198265965</v>
+        <v>6.36917387015442</v>
       </c>
       <c r="F16">
-        <v>77.74992816404131</v>
+        <v>21.40456048947512</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.95064816417263</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.647185373885903</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>15.72837078437229</v>
+        <v>15.73622515200657</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.749197960967522</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.8199639540607</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.609813978567805</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>16.21158740188949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.29678802895356</v>
+        <v>16.06146223693087</v>
       </c>
       <c r="C17">
-        <v>9.926223577478767</v>
+        <v>8.58670505627418</v>
       </c>
       <c r="D17">
-        <v>12.00409568740998</v>
+        <v>5.242104879963932</v>
       </c>
       <c r="E17">
-        <v>36.44617756374222</v>
+        <v>6.46930767855146</v>
       </c>
       <c r="F17">
-        <v>76.13406106439159</v>
+        <v>21.81023481513939</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.279542084229653</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.702037153997464</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.34645430468925</v>
+        <v>15.99446820271469</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.716478832161762</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.53998989787634</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.762310713734371</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>16.49804940511708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.0412263325731</v>
+        <v>15.93133313689657</v>
       </c>
       <c r="C18">
-        <v>9.777727161982991</v>
+        <v>8.32870803165552</v>
       </c>
       <c r="D18">
-        <v>11.88390996937057</v>
+        <v>5.388637259822413</v>
       </c>
       <c r="E18">
-        <v>35.89467923077127</v>
+        <v>6.733555740143893</v>
       </c>
       <c r="F18">
-        <v>75.19946080651543</v>
+        <v>22.57986689048193</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.152056983736449</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.711853243423804</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.12540375189228</v>
+        <v>16.39750838682744</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.701376609888023</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.34384082378755</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.100219310842812</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16.97914832089778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.95438231375719</v>
+        <v>15.9432571134184</v>
       </c>
       <c r="C19">
-        <v>9.727355692172564</v>
+        <v>8.09751251137129</v>
       </c>
       <c r="D19">
-        <v>11.84315755710479</v>
+        <v>5.618530618846574</v>
       </c>
       <c r="E19">
-        <v>35.70750370167681</v>
+        <v>7.179496248760785</v>
       </c>
       <c r="F19">
-        <v>74.88209450988431</v>
+        <v>23.55750215607753</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.891353182710808</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.69882647293903</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.05030883503776</v>
+        <v>16.8840820613724</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.74702607255352</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.24167826333095</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.58612238340922</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17.56530789256974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.34394041314618</v>
+        <v>16.36798613429828</v>
       </c>
       <c r="C20">
-        <v>9.953665443548845</v>
+        <v>7.89828728657847</v>
       </c>
       <c r="D20">
-        <v>12.02631217300249</v>
+        <v>6.053782017134703</v>
       </c>
       <c r="E20">
-        <v>36.54804517076987</v>
+        <v>8.064360161601037</v>
       </c>
       <c r="F20">
-        <v>76.30660229032506</v>
+        <v>25.1490789186719</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.731842905814113</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.593243639747913</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.38724974046481</v>
+        <v>17.63009930091951</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.946040063135958</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.39536655071895</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.428725887741725</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>18.47575472283892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.63304776338803</v>
+        <v>17.3628886754046</v>
       </c>
       <c r="C21">
-        <v>10.70933072192801</v>
+        <v>8.167944997477065</v>
       </c>
       <c r="D21">
-        <v>12.63828235704908</v>
+        <v>6.341533655190985</v>
       </c>
       <c r="E21">
-        <v>39.34766501191463</v>
+        <v>8.339030999267665</v>
       </c>
       <c r="F21">
-        <v>81.0335394369434</v>
+        <v>25.59350104537338</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.471553163220493</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.400660070378127</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>16.5038994123482</v>
+        <v>17.64300946274248</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.016013939587673</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.12241865130925</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.741444277627347</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>18.60506382538368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.46370588815283</v>
+        <v>17.98418579234792</v>
       </c>
       <c r="C22">
-        <v>11.20205479354712</v>
+        <v>8.336641344418735</v>
       </c>
       <c r="D22">
-        <v>13.03673796303803</v>
+        <v>6.504135999762502</v>
       </c>
       <c r="E22">
-        <v>41.16804870808241</v>
+        <v>8.475761459419843</v>
       </c>
       <c r="F22">
-        <v>84.08606584744156</v>
+        <v>25.84807144781222</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.316272084290023</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.269712909636662</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>17.22489033714994</v>
+        <v>17.64056958334094</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.051011992945912</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.5768772106047</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.899424340700858</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18.67479529423312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.02124806511754</v>
+        <v>17.66109028666917</v>
       </c>
       <c r="C23">
-        <v>10.93901547249347</v>
+        <v>8.230767408263183</v>
       </c>
       <c r="D23">
-        <v>12.82413597976404</v>
+        <v>6.41406035360713</v>
       </c>
       <c r="E23">
-        <v>40.19668966141878</v>
+        <v>8.406454787169519</v>
       </c>
       <c r="F23">
-        <v>82.45970296769713</v>
+        <v>25.74184104789871</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.397900134977872</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.328919081555363</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.84069831971751</v>
+        <v>17.66371062098231</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.034466572274584</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.33146610020212</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.81031293096338</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>18.65912313854618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.322628669907</v>
+        <v>16.36978316899742</v>
       </c>
       <c r="C24">
-        <v>9.941260690586006</v>
+        <v>7.847601080877189</v>
       </c>
       <c r="D24">
-        <v>12.01626927515244</v>
+        <v>6.069288903181028</v>
       </c>
       <c r="E24">
-        <v>36.50199903397336</v>
+        <v>8.132807292774286</v>
       </c>
       <c r="F24">
-        <v>76.22861399148103</v>
+        <v>25.30393295583091</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.715370983067948</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.576332337360367</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.36881077514887</v>
+        <v>17.72472990941885</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.966955327874409</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.37046952839644</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.473866159661275</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>18.57755779395418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.42209510989287</v>
+        <v>14.86078490273454</v>
       </c>
       <c r="C25">
-        <v>8.845834624093291</v>
+        <v>7.416743585242049</v>
       </c>
       <c r="D25">
-        <v>11.13232544450222</v>
+        <v>5.678067324100277</v>
       </c>
       <c r="E25">
-        <v>32.42291095818884</v>
+        <v>7.826258964503416</v>
       </c>
       <c r="F25">
-        <v>69.30634411710726</v>
+        <v>24.86089644680712</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.072986627423509</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.857061239400691</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>13.72702072204117</v>
+        <v>17.81057312638454</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.890873790856908</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.25084700506009</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.096767613108478</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>18.51806217595447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.68771286264087</v>
+        <v>13.61059877025774</v>
       </c>
       <c r="C2">
-        <v>7.041412013256175</v>
+        <v>6.917544865594754</v>
       </c>
       <c r="D2">
-        <v>5.364257414986726</v>
+        <v>5.491035636039906</v>
       </c>
       <c r="E2">
-        <v>7.600731679727566</v>
+        <v>7.544678844844345</v>
       </c>
       <c r="F2">
-        <v>24.63765677407128</v>
+        <v>23.69796536902445</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.347316912850809</v>
+        <v>3.169058134029159</v>
       </c>
       <c r="I2">
-        <v>4.052897052123491</v>
+        <v>3.825150591924381</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>17.94491840308918</v>
+        <v>17.04466089438933</v>
       </c>
       <c r="L2">
-        <v>5.837443567582325</v>
+        <v>13.33944932865324</v>
       </c>
       <c r="M2">
-        <v>11.34196929289857</v>
+        <v>11.84402875665827</v>
       </c>
       <c r="N2">
-        <v>6.794353020178533</v>
+        <v>5.762554193699692</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.48374612962202</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.040002654026235</v>
       </c>
       <c r="Q2">
-        <v>18.5527126071492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.79637076588752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82039242133731</v>
+        <v>12.73493308312404</v>
       </c>
       <c r="C3">
-        <v>6.80241990837377</v>
+        <v>6.58981723742863</v>
       </c>
       <c r="D3">
-        <v>5.148897734552907</v>
+        <v>5.26781226118463</v>
       </c>
       <c r="E3">
-        <v>7.437584557441869</v>
+        <v>7.392266061393042</v>
       </c>
       <c r="F3">
-        <v>24.45766073183658</v>
+        <v>23.58575222748238</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.543582605697372</v>
+        <v>3.354038158952722</v>
       </c>
       <c r="I3">
-        <v>4.2059135233257</v>
+        <v>3.963322844866271</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>18.01366852125226</v>
+        <v>17.15431703561155</v>
       </c>
       <c r="L3">
-        <v>5.796333732206568</v>
+        <v>13.48124704005325</v>
       </c>
       <c r="M3">
-        <v>10.68944395431967</v>
+        <v>11.90491859166804</v>
       </c>
       <c r="N3">
-        <v>6.591314635733279</v>
+        <v>5.725922924844153</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.81853149002192</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.831518958874944</v>
       </c>
       <c r="Q3">
-        <v>18.55773823496728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17.84861221041021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2564416727356</v>
+        <v>12.16366989355385</v>
       </c>
       <c r="C4">
-        <v>6.652250580887155</v>
+        <v>6.38308571209253</v>
       </c>
       <c r="D4">
-        <v>5.013077021088121</v>
+        <v>5.127124017243105</v>
       </c>
       <c r="E4">
-        <v>7.334853636430981</v>
+        <v>7.296251062933432</v>
       </c>
       <c r="F4">
-        <v>24.35326792862061</v>
+        <v>23.52228587951073</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.668624098846212</v>
+        <v>3.471922885343106</v>
       </c>
       <c r="I4">
-        <v>4.303972041040582</v>
+        <v>4.05212436775418</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>18.059306353331</v>
+        <v>17.22417331673938</v>
       </c>
       <c r="L4">
-        <v>5.770072427228287</v>
+        <v>13.56933709578158</v>
       </c>
       <c r="M4">
-        <v>10.26768892733961</v>
+        <v>11.95761254020535</v>
       </c>
       <c r="N4">
-        <v>6.464357088081593</v>
+        <v>5.702441271571842</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.38865772101272</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.701525992344775</v>
       </c>
       <c r="Q4">
-        <v>18.56611480721755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.88522021753203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.016790784267</v>
+        <v>11.92037578202174</v>
       </c>
       <c r="C5">
-        <v>6.594935784292479</v>
+        <v>6.303087575124746</v>
       </c>
       <c r="D5">
-        <v>4.958100868199295</v>
+        <v>5.070116549351718</v>
       </c>
       <c r="E5">
-        <v>7.291354617309858</v>
+        <v>7.255559213067039</v>
       </c>
       <c r="F5">
-        <v>24.30391955625463</v>
+        <v>23.48976855085794</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.721050319443618</v>
+        <v>3.521366277376385</v>
       </c>
       <c r="I5">
-        <v>4.347338402841452</v>
+        <v>4.092083661536429</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>18.07290871434692</v>
+        <v>17.24781653161492</v>
       </c>
       <c r="L5">
-        <v>5.75850708769363</v>
+        <v>13.60016757727117</v>
       </c>
       <c r="M5">
-        <v>10.09213390158433</v>
+        <v>11.97996943894686</v>
       </c>
       <c r="N5">
-        <v>6.413645675346396</v>
+        <v>5.6920589844496</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.20967251247341</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.649591115073834</v>
       </c>
       <c r="Q5">
-        <v>18.56492144157922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.89563527491161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.97410740022426</v>
+        <v>11.87698218807258</v>
       </c>
       <c r="C6">
-        <v>6.591165100929969</v>
+        <v>6.296560060358951</v>
       </c>
       <c r="D6">
-        <v>4.950399482382167</v>
+        <v>5.06202253021937</v>
       </c>
       <c r="E6">
-        <v>7.282847126262924</v>
+        <v>7.247571658579982</v>
       </c>
       <c r="F6">
-        <v>24.28561195960231</v>
+        <v>23.47467134280724</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.730211904247221</v>
+        <v>3.530019268620916</v>
       </c>
       <c r="I6">
-        <v>4.357620572841311</v>
+        <v>4.102327201954481</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>18.06808447158935</v>
+        <v>17.24512926638072</v>
       </c>
       <c r="L6">
-        <v>5.755830470570551</v>
+        <v>13.59880352886828</v>
       </c>
       <c r="M6">
-        <v>10.06457927066986</v>
+        <v>11.98033684199027</v>
       </c>
       <c r="N6">
-        <v>6.407088633739903</v>
+        <v>5.689632495002983</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.18148421657913</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.642749026658193</v>
       </c>
       <c r="Q6">
-        <v>18.5575822594277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.89057776479498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.24678614419647</v>
+        <v>12.15380545558216</v>
       </c>
       <c r="C7">
-        <v>6.667166651074787</v>
+        <v>6.40049538007204</v>
       </c>
       <c r="D7">
-        <v>5.016309455153047</v>
+        <v>5.130181473040547</v>
       </c>
       <c r="E7">
-        <v>7.330895325945426</v>
+        <v>7.292473644023888</v>
       </c>
       <c r="F7">
-        <v>24.32483932633041</v>
+        <v>23.49528087691129</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.670361193343121</v>
+        <v>3.47359276224164</v>
       </c>
       <c r="I7">
-        <v>4.3125327962183</v>
+        <v>4.062027404741682</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>18.04004033615125</v>
+        <v>17.20641624472875</v>
       </c>
       <c r="L7">
-        <v>5.767914918827631</v>
+        <v>13.55247510343537</v>
       </c>
       <c r="M7">
-        <v>10.27046552797343</v>
+        <v>11.94776096356882</v>
       </c>
       <c r="N7">
-        <v>6.46879313470512</v>
+        <v>5.700448929586542</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.39122957328196</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.705714837085066</v>
       </c>
       <c r="Q7">
-        <v>18.54642947566702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.86672171424955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.38726042031776</v>
+        <v>13.30755258148969</v>
       </c>
       <c r="C8">
-        <v>6.979890293494824</v>
+        <v>6.829365210523161</v>
       </c>
       <c r="D8">
-        <v>5.295775323149448</v>
+        <v>5.419674427718638</v>
       </c>
       <c r="E8">
-        <v>7.540718881210847</v>
+        <v>7.488529124450729</v>
       </c>
       <c r="F8">
-        <v>24.53817712084696</v>
+        <v>23.62365847289442</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.415340407486124</v>
+        <v>3.233197511555483</v>
       </c>
       <c r="I8">
-        <v>4.114896448264073</v>
+        <v>3.883830397742164</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>17.94236285047977</v>
+        <v>17.058425429178</v>
       </c>
       <c r="L8">
-        <v>5.8209188474056</v>
+        <v>13.36725102473357</v>
       </c>
       <c r="M8">
-        <v>11.12775057590784</v>
+        <v>11.84688175325232</v>
       </c>
       <c r="N8">
-        <v>6.731386201828572</v>
+        <v>5.747779115288921</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.26503581892332</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.974825913273899</v>
       </c>
       <c r="Q8">
-        <v>18.52756101915905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>17.78912678402327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.38954142959904</v>
+        <v>15.31503655638881</v>
       </c>
       <c r="C9">
-        <v>7.538189391916523</v>
+        <v>7.592950603959296</v>
       </c>
       <c r="D9">
-        <v>5.806118157695654</v>
+        <v>5.949318222644137</v>
       </c>
       <c r="E9">
-        <v>7.936472790731859</v>
+        <v>7.858165427515686</v>
       </c>
       <c r="F9">
-        <v>25.05376465110657</v>
+        <v>23.96584495956726</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.948864614096292</v>
+        <v>2.793716885526924</v>
       </c>
       <c r="I9">
-        <v>3.74643546958173</v>
+        <v>3.550190433801165</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>17.81329586877</v>
+        <v>16.82053195211744</v>
       </c>
       <c r="L9">
-        <v>5.920236491871282</v>
+        <v>13.03924757114903</v>
       </c>
       <c r="M9">
-        <v>12.63129548524232</v>
+        <v>11.79319406910707</v>
       </c>
       <c r="N9">
-        <v>7.217252179534693</v>
+        <v>5.83594099051838</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.7982796924736</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.475951921859</v>
       </c>
       <c r="Q9">
-        <v>18.56877402103509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>17.70729652050829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.72458036984873</v>
+        <v>16.6184955892066</v>
       </c>
       <c r="C10">
-        <v>7.962920397911248</v>
+        <v>8.154403233824297</v>
       </c>
       <c r="D10">
-        <v>6.128064478591191</v>
+        <v>6.282965136840516</v>
       </c>
       <c r="E10">
-        <v>8.126517955823196</v>
+        <v>8.032537626314255</v>
       </c>
       <c r="F10">
-        <v>25.3045067280404</v>
+        <v>24.10397035934798</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.653039901949606</v>
+        <v>2.516742812708785</v>
       </c>
       <c r="I10">
-        <v>3.504402116382605</v>
+        <v>3.333596284639022</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>17.65071586968158</v>
+        <v>16.58819170736579</v>
       </c>
       <c r="L10">
-        <v>5.963737366131975</v>
+        <v>12.75018211064968</v>
       </c>
       <c r="M10">
-        <v>13.63982357210153</v>
+        <v>11.77434070029947</v>
       </c>
       <c r="N10">
-        <v>7.488442173581309</v>
+        <v>5.87445906882955</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.82441705793625</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.756824463532543</v>
       </c>
       <c r="Q10">
-        <v>18.53042796893379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>17.58808047827754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.19374661827461</v>
+        <v>17.09630874725238</v>
       </c>
       <c r="C11">
-        <v>8.406436901898118</v>
+        <v>8.628501297810102</v>
       </c>
       <c r="D11">
-        <v>5.991728075143147</v>
+        <v>6.136704173508539</v>
       </c>
       <c r="E11">
-        <v>7.521534202284388</v>
+        <v>7.44365589064127</v>
       </c>
       <c r="F11">
-        <v>24.14004499103848</v>
+        <v>23.023185800761</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.398331135451143</v>
+        <v>3.296682265660218</v>
       </c>
       <c r="I11">
-        <v>3.453371703230865</v>
+        <v>3.292319102771161</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>16.90364672682762</v>
+        <v>15.93212993543203</v>
       </c>
       <c r="L11">
-        <v>5.819590754079906</v>
+        <v>12.22963481229314</v>
       </c>
       <c r="M11">
-        <v>14.13904789043401</v>
+        <v>11.32879244203444</v>
       </c>
       <c r="N11">
-        <v>6.995550189531125</v>
+        <v>5.753315411965308</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.31373878642995</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.247702017187308</v>
       </c>
       <c r="Q11">
-        <v>17.73645942549894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.86332144335918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.32682118830347</v>
+        <v>17.24304471440053</v>
       </c>
       <c r="C12">
-        <v>8.686169402700905</v>
+        <v>8.895755698591405</v>
       </c>
       <c r="D12">
-        <v>5.800843258775114</v>
+        <v>5.935069535107998</v>
       </c>
       <c r="E12">
-        <v>7.046319036589538</v>
+        <v>6.985739212151564</v>
       </c>
       <c r="F12">
-        <v>23.14274858481086</v>
+        <v>22.11841591915909</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.600772629594469</v>
+        <v>4.525649314792478</v>
       </c>
       <c r="I12">
-        <v>3.442682032555179</v>
+        <v>3.282227455937323</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>16.35570943016506</v>
+        <v>15.47169390421919</v>
       </c>
       <c r="L12">
-        <v>5.753272469559912</v>
+        <v>11.89690364156724</v>
       </c>
       <c r="M12">
-        <v>14.35076552048367</v>
+        <v>10.97564770428154</v>
       </c>
       <c r="N12">
-        <v>6.526169762556338</v>
+        <v>5.705728245332859</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.51322955130082</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.762521395374541</v>
       </c>
       <c r="Q12">
-        <v>17.10755232066211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>16.3078001772708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.20621983993126</v>
+        <v>17.14142629627268</v>
       </c>
       <c r="C13">
-        <v>8.881244430425999</v>
+        <v>9.049320935065907</v>
       </c>
       <c r="D13">
-        <v>5.557202567635004</v>
+        <v>5.679041055792894</v>
       </c>
       <c r="E13">
-        <v>6.648906580436094</v>
+        <v>6.607154181022732</v>
       </c>
       <c r="F13">
-        <v>22.17088281919725</v>
+        <v>21.2533320281994</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.928493299435924</v>
+        <v>5.867837726509362</v>
       </c>
       <c r="I13">
-        <v>3.475541654875963</v>
+        <v>3.311104628060813</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>15.90270638686916</v>
+        <v>15.10928821882166</v>
       </c>
       <c r="L13">
-        <v>5.739770466546814</v>
+        <v>11.65538456835197</v>
       </c>
       <c r="M13">
-        <v>14.36657540244481</v>
+        <v>10.6615709343598</v>
       </c>
       <c r="N13">
-        <v>6.050928907732301</v>
+        <v>5.707779872390982</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.51377345279203</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.270959000010265</v>
       </c>
       <c r="Q13">
-        <v>16.53979141512544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.82215314742961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.00381720698812</v>
+        <v>16.95503733081514</v>
       </c>
       <c r="C14">
-        <v>8.987053271759644</v>
+        <v>9.112658315245538</v>
       </c>
       <c r="D14">
-        <v>5.361363981384162</v>
+        <v>5.473700398791979</v>
       </c>
       <c r="E14">
-        <v>6.426398148662685</v>
+        <v>6.397869471905817</v>
       </c>
       <c r="F14">
-        <v>21.50143569292024</v>
+        <v>20.66438157069635</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.894750794633063</v>
+        <v>6.840309852787849</v>
       </c>
       <c r="I14">
-        <v>3.520724335213579</v>
+        <v>3.351975970824107</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>15.63227097522342</v>
+        <v>14.90182218703145</v>
       </c>
       <c r="L14">
-        <v>5.761862750433879</v>
+        <v>11.52288895849617</v>
       </c>
       <c r="M14">
-        <v>14.29059756913841</v>
+        <v>10.46637421476773</v>
       </c>
       <c r="N14">
-        <v>5.720902500987581</v>
+        <v>5.738460190252376</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.42544698849586</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.929592392537791</v>
       </c>
       <c r="Q14">
-        <v>16.17121148878001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>15.51403280088796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.89727545254851</v>
+        <v>16.85365237932892</v>
       </c>
       <c r="C15">
-        <v>8.999953041191775</v>
+        <v>9.110214418591388</v>
       </c>
       <c r="D15">
-        <v>5.303670926482389</v>
+        <v>5.413305092576364</v>
       </c>
       <c r="E15">
-        <v>6.378875410345401</v>
+        <v>6.35369530442927</v>
       </c>
       <c r="F15">
-        <v>21.33661905443548</v>
+        <v>20.52232781826527</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.123181255497911</v>
+        <v>7.069426482509349</v>
       </c>
       <c r="I15">
-        <v>3.545306480874414</v>
+        <v>3.37520547734352</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>15.57977895875725</v>
+        <v>14.86558444802671</v>
       </c>
       <c r="L15">
-        <v>5.76995553313442</v>
+        <v>11.50117172748459</v>
       </c>
       <c r="M15">
-        <v>14.2313063759516</v>
+        <v>10.42595135638717</v>
       </c>
       <c r="N15">
-        <v>5.639415155959786</v>
+        <v>5.748133981550192</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.36244366649204</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.845351066708997</v>
       </c>
       <c r="Q15">
-        <v>16.08894928220287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>15.44846825418823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.36573279034119</v>
+        <v>16.33273850712396</v>
       </c>
       <c r="C16">
-        <v>8.800566161625932</v>
+        <v>8.864684662922517</v>
       </c>
       <c r="D16">
-        <v>5.208128721823954</v>
+        <v>5.31482205146891</v>
       </c>
       <c r="E16">
-        <v>6.36917387015442</v>
+        <v>6.345940448075305</v>
       </c>
       <c r="F16">
-        <v>21.40456048947512</v>
+        <v>20.61630188749368</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.95064816417263</v>
+        <v>6.890024393663256</v>
       </c>
       <c r="I16">
-        <v>3.647185373885903</v>
+        <v>3.467917928055352</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>15.73622515200657</v>
+        <v>15.02893999634979</v>
       </c>
       <c r="L16">
-        <v>5.749197960967522</v>
+        <v>11.62287677652017</v>
       </c>
       <c r="M16">
-        <v>13.8199639540607</v>
+        <v>10.51822072012901</v>
       </c>
       <c r="N16">
-        <v>5.609813978567805</v>
+        <v>5.724559183964081</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.94570887400979</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.816029106346289</v>
       </c>
       <c r="Q16">
-        <v>16.21158740188949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>15.5873042717171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.06146223693087</v>
+        <v>16.02782842522809</v>
       </c>
       <c r="C17">
-        <v>8.58670505627418</v>
+        <v>8.638352301771951</v>
       </c>
       <c r="D17">
-        <v>5.242104879963932</v>
+        <v>5.351684855991769</v>
       </c>
       <c r="E17">
-        <v>6.46930767855146</v>
+        <v>6.441123934120169</v>
       </c>
       <c r="F17">
-        <v>21.81023481513939</v>
+        <v>20.99999796087124</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.279542084229653</v>
+        <v>6.208967686435578</v>
       </c>
       <c r="I17">
-        <v>3.702037153997464</v>
+        <v>3.518109701506796</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>15.99446820271469</v>
+        <v>15.26117950345124</v>
       </c>
       <c r="L17">
-        <v>5.716478832161762</v>
+        <v>11.79466585709352</v>
       </c>
       <c r="M17">
-        <v>13.53998989787634</v>
+        <v>10.68348465046734</v>
       </c>
       <c r="N17">
-        <v>5.762310713734371</v>
+        <v>5.685809344758312</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.66845143184786</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.97432698775574</v>
       </c>
       <c r="Q17">
-        <v>16.49804940511708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.85516182672924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.93133313689657</v>
+        <v>15.88696991046421</v>
       </c>
       <c r="C18">
-        <v>8.32870803165552</v>
+        <v>8.39227621034852</v>
       </c>
       <c r="D18">
-        <v>5.388637259822413</v>
+        <v>5.506586012480693</v>
       </c>
       <c r="E18">
-        <v>6.733555740143893</v>
+        <v>6.69320099216115</v>
       </c>
       <c r="F18">
-        <v>22.57986689048193</v>
+        <v>21.70195997856822</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.152056983736449</v>
+        <v>5.064862396032578</v>
       </c>
       <c r="I18">
-        <v>3.711853243423804</v>
+        <v>3.525184681139709</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>16.39750838682744</v>
+        <v>15.60371098138233</v>
       </c>
       <c r="L18">
-        <v>5.701376609888023</v>
+        <v>12.05338524472371</v>
       </c>
       <c r="M18">
-        <v>13.34384082378755</v>
+        <v>10.93960876925455</v>
       </c>
       <c r="N18">
-        <v>6.100219310842812</v>
+        <v>5.659743023757754</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.48238739020611</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.323595642958082</v>
       </c>
       <c r="Q18">
-        <v>16.97914832089778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>16.28376624187385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.9432571134184</v>
+        <v>15.88136637804322</v>
       </c>
       <c r="C19">
-        <v>8.09751251137129</v>
+        <v>8.18979155370762</v>
       </c>
       <c r="D19">
-        <v>5.618530618846574</v>
+        <v>5.748428580030266</v>
       </c>
       <c r="E19">
-        <v>7.179496248760785</v>
+        <v>7.121572038140704</v>
       </c>
       <c r="F19">
-        <v>23.55750215607753</v>
+        <v>22.58001829055559</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.891353182710808</v>
+        <v>3.778469824044323</v>
       </c>
       <c r="I19">
-        <v>3.69882647293903</v>
+        <v>3.514884924650392</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>16.8840820613724</v>
+        <v>16.00496153386888</v>
       </c>
       <c r="L19">
-        <v>5.74702607255352</v>
+        <v>12.35942371843331</v>
       </c>
       <c r="M19">
-        <v>13.24167826333095</v>
+        <v>11.24447382606323</v>
       </c>
       <c r="N19">
-        <v>6.58612238340922</v>
+        <v>5.689372021229108</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.39486055636362</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.824727686278664</v>
       </c>
       <c r="Q19">
-        <v>17.56530789256974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>16.79349422993496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.36798613429828</v>
+        <v>16.27057844225336</v>
       </c>
       <c r="C20">
-        <v>7.89828728657847</v>
+        <v>8.061209962840978</v>
       </c>
       <c r="D20">
-        <v>6.053782017134703</v>
+        <v>6.205225886787074</v>
       </c>
       <c r="E20">
-        <v>8.064360161601037</v>
+        <v>7.974978522776492</v>
       </c>
       <c r="F20">
-        <v>25.1490789186719</v>
+        <v>23.9828657552997</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.731842905814113</v>
+        <v>2.590469870173976</v>
       </c>
       <c r="I20">
-        <v>3.593243639747913</v>
+        <v>3.420857512075683</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>17.63009930091951</v>
+        <v>16.5923284183646</v>
       </c>
       <c r="L20">
-        <v>5.946040063135958</v>
+        <v>12.78340783387054</v>
       </c>
       <c r="M20">
-        <v>13.39536655071895</v>
+        <v>11.73111770742264</v>
       </c>
       <c r="N20">
-        <v>7.428725887741725</v>
+        <v>5.858709332535753</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.57502751664969</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.693928803032319</v>
       </c>
       <c r="Q20">
-        <v>18.47575472283892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>17.55910771544001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.3628886754046</v>
+        <v>17.23843045265384</v>
       </c>
       <c r="C21">
-        <v>8.167944997477065</v>
+        <v>8.434209772217613</v>
       </c>
       <c r="D21">
-        <v>6.341533655190985</v>
+        <v>6.504441579264324</v>
       </c>
       <c r="E21">
-        <v>8.339030999267665</v>
+        <v>8.233850944827553</v>
       </c>
       <c r="F21">
-        <v>25.59350104537338</v>
+        <v>24.31617354784948</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.471553163220493</v>
+        <v>2.344459696366294</v>
       </c>
       <c r="I21">
-        <v>3.400660070378127</v>
+        <v>3.247731359227907</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>17.64300946274248</v>
+        <v>16.52757138380153</v>
       </c>
       <c r="L21">
-        <v>6.016013939587673</v>
+        <v>12.64653656367857</v>
       </c>
       <c r="M21">
-        <v>14.12241865130925</v>
+        <v>11.82403928278605</v>
       </c>
       <c r="N21">
-        <v>7.741444277627347</v>
+        <v>5.920331370402451</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.31802116828425</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.018008231613452</v>
       </c>
       <c r="Q21">
-        <v>18.60506382538368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>17.60597933862487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98418579234792</v>
+        <v>17.84387112439694</v>
       </c>
       <c r="C22">
-        <v>8.336641344418735</v>
+        <v>8.664021634821156</v>
       </c>
       <c r="D22">
-        <v>6.504135999762502</v>
+        <v>6.673586256026431</v>
       </c>
       <c r="E22">
-        <v>8.475761459419843</v>
+        <v>8.361591755703378</v>
       </c>
       <c r="F22">
-        <v>25.84807144781222</v>
+        <v>24.50455108033194</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.316272084290023</v>
+        <v>2.198365199668485</v>
       </c>
       <c r="I22">
-        <v>3.269712909636662</v>
+        <v>3.127004045065779</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>17.64056958334094</v>
+        <v>16.47811812944171</v>
       </c>
       <c r="L22">
-        <v>6.051011992945912</v>
+        <v>12.54869619554877</v>
       </c>
       <c r="M22">
-        <v>14.5768772106047</v>
+        <v>11.89246345404859</v>
       </c>
       <c r="N22">
-        <v>7.899424340700858</v>
+        <v>5.951147845034272</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.78153417293568</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.182474742272619</v>
       </c>
       <c r="Q22">
-        <v>18.67479529423312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>17.62598883048539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.66109028666917</v>
+        <v>17.5289854588456</v>
       </c>
       <c r="C23">
-        <v>8.230767408263183</v>
+        <v>8.523454415377184</v>
       </c>
       <c r="D23">
-        <v>6.41406035360713</v>
+        <v>6.58016609956473</v>
       </c>
       <c r="E23">
-        <v>8.406454787169519</v>
+        <v>8.296902251166276</v>
       </c>
       <c r="F23">
-        <v>25.74184104789871</v>
+        <v>24.43210460832547</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.397900134977872</v>
+        <v>2.275146616831841</v>
       </c>
       <c r="I23">
-        <v>3.328919081555363</v>
+        <v>3.178705335593464</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>17.66371062098231</v>
+        <v>16.52425659184948</v>
       </c>
       <c r="L23">
-        <v>6.034466572274584</v>
+        <v>12.61487148890033</v>
       </c>
       <c r="M23">
-        <v>14.33146610020212</v>
+        <v>11.87106375386388</v>
       </c>
       <c r="N23">
-        <v>7.81031293096338</v>
+        <v>5.936612280471495</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.53146070712726</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.090074995435312</v>
       </c>
       <c r="Q23">
-        <v>18.65912313854618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>17.63545669148523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.36978316899742</v>
+        <v>16.27046885424315</v>
       </c>
       <c r="C24">
-        <v>7.847601080877189</v>
+        <v>8.007324374524783</v>
       </c>
       <c r="D24">
-        <v>6.069288903181028</v>
+        <v>6.222134649233026</v>
       </c>
       <c r="E24">
-        <v>8.132807292774286</v>
+        <v>8.041387033516598</v>
       </c>
       <c r="F24">
-        <v>25.30393295583091</v>
+        <v>24.12493756642101</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.715370983067948</v>
+        <v>2.573902865802284</v>
       </c>
       <c r="I24">
-        <v>3.576332337360367</v>
+        <v>3.400914581372571</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>17.72472990941885</v>
+        <v>16.67393876773863</v>
       </c>
       <c r="L24">
-        <v>5.966955327874409</v>
+        <v>12.84603263770377</v>
       </c>
       <c r="M24">
-        <v>13.37046952839644</v>
+        <v>11.79246208435813</v>
       </c>
       <c r="N24">
-        <v>7.473866159661275</v>
+        <v>5.877146941678531</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.55167065890996</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.741024860228491</v>
       </c>
       <c r="Q24">
-        <v>18.57755779395418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>17.6504597259904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86078490273454</v>
+        <v>14.79026738367303</v>
       </c>
       <c r="C25">
-        <v>7.416743585242049</v>
+        <v>7.422318950906422</v>
       </c>
       <c r="D25">
-        <v>5.678067324100277</v>
+        <v>5.815923706248213</v>
       </c>
       <c r="E25">
-        <v>7.826258964503416</v>
+        <v>7.755132996655552</v>
       </c>
       <c r="F25">
-        <v>24.86089644680712</v>
+        <v>23.82257838654029</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.072986627423509</v>
+        <v>2.910653596476447</v>
       </c>
       <c r="I25">
-        <v>3.857061239400691</v>
+        <v>3.654157815154312</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>17.81057312638454</v>
+        <v>16.85112547794328</v>
       </c>
       <c r="L25">
-        <v>5.890873790856908</v>
+        <v>13.10179453642485</v>
       </c>
       <c r="M25">
-        <v>12.25084700506009</v>
+        <v>11.77164108755626</v>
       </c>
       <c r="N25">
-        <v>7.096767613108478</v>
+        <v>5.809874770078331</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.4099264217648</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.350829435860271</v>
       </c>
       <c r="Q25">
-        <v>18.51806217595447</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>17.6926049706957</v>
       </c>
     </row>
   </sheetData>
